--- a/timetable_report.xlsx
+++ b/timetable_report.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3972,7 +3972,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4108,7 +4108,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4363,7 +4363,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4414,7 +4414,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4618,7 +4618,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4652,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4890,7 +4890,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5298,7 +5298,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5383,7 +5383,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5400,7 +5400,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5434,7 +5434,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5451,7 +5451,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5502,7 +5502,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5536,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5570,7 +5570,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5638,7 +5638,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5655,7 +5655,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5672,7 +5672,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5740,7 +5740,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5825,7 +5825,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5876,7 +5876,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5944,7 +5944,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5978,7 +5978,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -6012,7 +6012,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -6154,7 +6154,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -6162,17 +6162,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -6197,7 +6197,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -6205,12 +6205,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -6248,12 +6248,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -6283,7 +6283,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -6291,12 +6291,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -6326,7 +6326,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -6334,12 +6334,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -6369,7 +6369,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -6377,12 +6377,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -6420,12 +6420,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -6455,7 +6455,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -6463,12 +6463,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -6498,7 +6498,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -6506,12 +6506,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -6549,17 +6549,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -6584,7 +6584,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -6592,17 +6592,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -6635,17 +6635,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -6670,7 +6670,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -6678,17 +6678,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -6721,12 +6721,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -6764,12 +6764,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -6799,7 +6799,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -6850,17 +6850,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -6893,17 +6893,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -6928,7 +6928,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -6936,12 +6936,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -6971,7 +6971,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -6979,17 +6979,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -7022,17 +7022,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -7057,7 +7057,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -7065,12 +7065,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -7100,7 +7100,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -7108,17 +7108,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -7151,17 +7151,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -7186,7 +7186,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -7194,17 +7194,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -7229,7 +7229,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -7237,17 +7237,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -7272,7 +7272,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -7280,17 +7280,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -7323,12 +7323,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t>16:00</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>18:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -7366,12 +7366,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -7409,17 +7409,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -7452,12 +7452,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -7495,12 +7495,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -7530,7 +7530,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -7538,12 +7538,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -7573,7 +7573,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -7616,7 +7616,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -7624,12 +7624,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -7659,7 +7659,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -7667,17 +7667,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -7702,7 +7702,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -7710,12 +7710,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -7788,7 +7788,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -7796,17 +7796,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -7839,17 +7839,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -7874,7 +7874,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -7917,7 +7917,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -7925,12 +7925,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -7968,17 +7968,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -8003,7 +8003,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -8011,17 +8011,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -8046,7 +8046,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -8054,17 +8054,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -8097,12 +8097,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -8132,7 +8132,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -8140,12 +8140,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -8183,12 +8183,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -8218,7 +8218,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -8226,12 +8226,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -8269,12 +8269,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -8312,12 +8312,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -8355,17 +8355,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -8398,12 +8398,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -8433,7 +8433,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -8441,12 +8441,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -8484,17 +8484,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -8519,7 +8519,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -8527,12 +8527,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -8562,7 +8562,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -8570,12 +8570,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -8605,7 +8605,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -8613,17 +8613,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -8648,7 +8648,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -8656,17 +8656,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8744,7 +8744,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 01 (A- Block)</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -8756,29 +8756,29 @@
         <v>59</v>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AIM 101</t>
+          <t>AIM 102</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Statistics for DS</t>
+          <t>Statistical Machine Learning</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 03 (C- Block)</t>
+          <t>A303</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -8790,29 +8790,29 @@
         <v>59</v>
       </c>
       <c r="F3" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H3" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AIM 101</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Statistics for DS</t>
+          <t>Multi-agent Systems</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 05 (E- Block)</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -8821,32 +8821,32 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AIM 102</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Statistical Machine Learning</t>
+          <t>Spatial Computing</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A310</t>
+          <t>A307</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -8855,100 +8855,100 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="H5" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AIM 102</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Statistical Machine Learning</t>
+          <t>Few-shot Learning</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 02 (B- Block)</t>
+          <t>R106 (LAB)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NotLab</t>
+          <t>CSE Lab</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c r="F6" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AIM 102</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Statistical Machine Learning</t>
+          <t>Few-shot Learning</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 05 (E- Block)</t>
+          <t>R107/R108 (LAB)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NotLab</t>
+          <t>CSE Lab</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c r="F7" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="H7" t="n">
-        <v>29</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Multi-agent Systems</t>
+          <t>Reinforcement Learning</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 05 (E- Block)</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -8957,27 +8957,27 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="F8" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="H8" t="n">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AIM 821</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Spatial Computing</t>
+          <t>Spatio-temporal Data Analytics I</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -8991,7 +8991,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F9" t="n">
         <v>16</v>
@@ -9000,91 +9000,91 @@
         <v>60</v>
       </c>
       <c r="H9" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>AIM 845</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Few-shot Learning</t>
+          <t>Topics in Quantum Computing</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>R106 (LAB)</t>
+          <t>R105</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CSE Lab</t>
+          <t>NotLab</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>175</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
         <v>70</v>
       </c>
       <c r="H10" t="n">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Few-shot Learning</t>
+          <t>Multiobjective Machine Learning</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>R107/R108 (LAB)</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CSE Lab</t>
+          <t>NotLab</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="H11" t="n">
-        <v>115</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Reinforcement Learning</t>
+          <t>Science&amp; Maths Pool-4 (Electromagnetics &amp; Radiation Systems)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A107</t>
+          <t>Ramanujan Basement 01 (A- Block)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -9093,32 +9093,32 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Reinforcement Learning</t>
+          <t>Science&amp; Maths Pool-3 (Basic Computational Topology)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 03 (C- Block)</t>
+          <t>A106</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -9127,32 +9127,32 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="F13" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G13" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="H13" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Reinforcement Learning</t>
+          <t>Science&amp; Maths Pool-2 (Elements of Statistical Physics)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 05 (E- Block)</t>
+          <t>A204</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -9161,32 +9161,32 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F14" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="G14" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H14" t="n">
-        <v>51</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Spatio-temporal Data Analytics I</t>
+          <t>Science&amp; Maths Pool-1 (A computational introduction to Number Theory)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>R401(Amanthran)</t>
+          <t>Ramanujan Basement 05 (E- Block)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -9195,32 +9195,32 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="F15" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G15" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>COM 605</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Spatio-temporal Data Analytics I</t>
+          <t>5G-NR Radio Access Network Design with Hands-on</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 01 (A- Block)</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -9229,32 +9229,32 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F16" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H16" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Spatio-temporal Data Analytics I</t>
+          <t>Design and Analysis of Algorithms</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 02 (B- Block)</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -9263,32 +9263,32 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="F17" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AIM 845</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Topics in Quantum Computing</t>
+          <t>Computer Graphics</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 04 (D- Block)</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -9297,32 +9297,32 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F18" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G18" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Multiobjective Machine Learning</t>
+          <t>Topics in Computability and Learning</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A106</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -9331,32 +9331,32 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="F19" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H19" t="n">
-        <v>26</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Science&amp; Maths Pool-4 (Electromagnetics &amp; Radiation Systems)</t>
+          <t>Foundations of Distributed Consensus and Blockchains</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 04 (D- Block)</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -9365,32 +9365,32 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="F20" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Science&amp; Maths Pool-3 (Basic Computational Topology)</t>
+          <t>Programming Languages</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 01 (A- Block)</t>
+          <t>Ramanujan Basement 02 (B- Block)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -9399,32 +9399,32 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G21" t="n">
         <v>80</v>
       </c>
       <c r="H21" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Science&amp; Maths Pool-2 (Elements of Statistical Physics)</t>
+          <t>Software Production Engineering</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R401(Amanthran)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -9433,32 +9433,32 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G22" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="H22" t="n">
-        <v>60</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Science&amp; Maths Pool-2 (Elements of Statistical Physics)</t>
+          <t>Cyber Security Fundamentals with Tools &amp; Techniques for Defence</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -9467,32 +9467,32 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Science&amp; Maths Pool-2 (Elements of Statistical Physics)</t>
+          <t>Simulation and Modeling of Data using High Performance Computing</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A314</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -9501,27 +9501,27 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="F24" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Science&amp; Maths Pool-1 (A computational introduction to Number Theory)</t>
+          <t>Data Modelling</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -9535,7 +9535,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F25" t="n">
         <v>17</v>
@@ -9544,23 +9544,23 @@
         <v>90</v>
       </c>
       <c r="H25" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Science&amp; Maths Pool-1 (A computational introduction to Number Theory)</t>
+          <t>NoSQL Systems</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 01 (A- Block)</t>
+          <t>Ramanujan Basement 05 (E- Block)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -9569,32 +9569,32 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F26" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G26" t="n">
         <v>80</v>
       </c>
       <c r="H26" t="n">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>COM 605</t>
+          <t>DHS 108</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>5G-NR Radio Access Network Design with Hands-on</t>
+          <t>The City</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 01 (A- Block)</t>
+          <t>Ramanujan Basement 03 (C- Block)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -9603,32 +9603,32 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G27" t="n">
         <v>80</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>COM 605</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5G-NR Radio Access Network Design with Hands-on</t>
+          <t>Social Pathways to IT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 02 (B- Block)</t>
+          <t>A106</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -9637,32 +9637,32 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="F28" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G28" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>COM 605</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5G-NR Radio Access Network Design with Hands-on</t>
+          <t>Innovation and Design Thinking</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 04 (D- Block)</t>
+          <t>A303</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -9671,32 +9671,32 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F29" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G29" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H29" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Design and Analysis of Algorithms</t>
+          <t>Software Architecture for Digital Products</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>Ramanujan Basement 03 (C- Block)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -9705,32 +9705,32 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G30" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Design and Analysis of Algorithms</t>
+          <t>User Experience</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>Ramanujan Basement 05 (E- Block)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -9739,32 +9739,32 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="G31" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H31" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Design and Analysis of Algorithms</t>
+          <t>An Introduction to Accessibility in the Global South</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 02 (B- Block)</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -9773,32 +9773,32 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>60</v>
+      </c>
+      <c r="H32" t="n">
         <v>25</v>
-      </c>
-      <c r="G32" t="n">
-        <v>80</v>
-      </c>
-      <c r="H32" t="n">
-        <v>79</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CSE 606</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Computer Graphics</t>
+          <t>Technology, Regulation and Law</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A226</t>
+          <t>A304/A305</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -9807,32 +9807,32 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="F33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G33" t="n">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CSE 606</t>
+          <t>DHS 611</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Computer Graphics</t>
+          <t>Research and Publication Ethics</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A314</t>
+          <t>A303</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -9841,13 +9841,13 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F34" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G34" t="n">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="H34" t="n">
         <v>12</v>
@@ -9856,17 +9856,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Topics in Computability and Learning</t>
+          <t>Analog Circuits</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -9875,66 +9875,66 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="H35" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Topics in Computability and Learning</t>
+          <t>Analog Circuits Lab</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>A317 HidesLab</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NotLab</t>
+          <t>ECE Lab</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G36" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H36" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Topics in Computability and Learning</t>
+          <t>Principles of Communication Systems</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R105</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -9943,66 +9943,66 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="F37" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G37" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Foundations of Distributed Consensus and Blockchains</t>
+          <t>Principles of Communication Systems Lab</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 02 (B- Block)</t>
+          <t>A317 HidesLab</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NotLab</t>
+          <t>ECE Lab</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="F38" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G38" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H38" t="n">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Programming Languages</t>
+          <t>Signal Processing</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 01 (A- Block)</t>
+          <t>A204</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -10011,32 +10011,32 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F39" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G39" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H39" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Software Production Engineering</t>
+          <t>Operating Systems</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>A106</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -10045,32 +10045,32 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="F40" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H40" t="n">
-        <v>146</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>VLS 603</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Cyber Security Fundamentals with Tools &amp; Techniques for Defence</t>
+          <t>Electronic Systems Packaging</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>R110</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -10079,32 +10079,32 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="F41" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H41" t="n">
-        <v>70</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>VLS 804</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cyber Security Fundamentals with Tools &amp; Techniques for Defence</t>
+          <t>Analog Power ICs</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>R109</t>
+          <t>Ramanujan Basement 05 (E- Block)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -10113,32 +10113,32 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>155</v>
+        <v>31</v>
       </c>
       <c r="F42" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G42" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="H42" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>CSE 102-A</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Cyber Security Fundamentals with Tools &amp; Techniques for Defence</t>
+          <t>Data Structures and Algorithms</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 01 (A- Block)</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -10147,32 +10147,32 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F43" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="H43" t="n">
-        <v>80</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Simulation and Modeling of Data using High Performance Computing</t>
+          <t>Data Structures and Algorithms</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R401(Amanthran)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -10181,32 +10181,32 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G44" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="H44" t="n">
-        <v>14</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>CSE 102 P-A</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Data Modelling</t>
+          <t>Data Structures and Algorithms lab</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 02 (B- Block)</t>
+          <t>A106</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -10215,32 +10215,32 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="F45" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G45" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Data Modelling</t>
+          <t>Data Structures and Algorithms lab</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 03 (C- Block)</t>
+          <t>R401(Amanthran)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -10249,32 +10249,32 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="F46" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G46" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="H46" t="n">
-        <v>51</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>CSE 104-A</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Data Modelling</t>
+          <t>Linear Algebra</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 05 (E- Block)</t>
+          <t>A106</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -10283,32 +10283,32 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="F47" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G47" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NoSQL Systems</t>
+          <t>Linear Algebra</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -10317,32 +10317,32 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NoSQL Systems</t>
+          <t>Database Systems</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 02 (B- Block)</t>
+          <t>A106</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -10351,32 +10351,32 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="F49" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G49" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="H49" t="n">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>DHS 108</t>
+          <t>DAS 101-A</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>The City</t>
+          <t>Database Systems</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 01 (A- Block)</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -10385,236 +10385,236 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="F50" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>DHS 108</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>The City</t>
+          <t>Database Lab</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 03 (C- Block)</t>
+          <t>R107/R108 (LAB)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NotLab</t>
+          <t>CSE Lab</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="F51" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G51" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="H51" t="n">
-        <v>6</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>DAS 101P-A</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Social Pathways to IT</t>
+          <t>Database Lab</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>A310</t>
+          <t>R107/R108 (LAB)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NotLab</t>
+          <t>CSE Lab</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="F52" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G52" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="H52" t="n">
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>DHS 101B-A</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Social Pathways to IT</t>
+          <t>Economics-II</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 02 (B- Block)</t>
+          <t>R106 (LAB)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NotLab</t>
+          <t>CSE Lab</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="F53" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G53" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H53" t="n">
-        <v>79</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>DHS 101B-A</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Social Pathways to IT</t>
+          <t>Economics-II</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 04 (D- Block)</t>
+          <t>R107/R108 (LAB)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NotLab</t>
+          <t>CSE Lab</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="F54" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G54" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="H54" t="n">
-        <v>54</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Innovation and Design Thinking</t>
+          <t>Economics-II</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 02 (B- Block)</t>
+          <t>R106 (LAB)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NotLab</t>
+          <t>CSE Lab</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="F55" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G55" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Innovation and Design Thinking</t>
+          <t>Economics-II</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 03 (C- Block)</t>
+          <t>R107/R108 (LAB)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NotLab</t>
+          <t>CSE Lab</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="F56" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G56" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="H56" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>DHS 306</t>
+          <t>DHS 201-A</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Software Architecture for Digital Products</t>
+          <t>Technical Communication</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 05 (E- Block)</t>
+          <t>R401(Amanthran)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -10623,32 +10623,32 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="F57" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G57" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="H57" t="n">
-        <v>34</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>DHS 201-A</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>User Experience</t>
+          <t>Technical Communication</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 01 (A- Block)</t>
+          <t>A106</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -10657,32 +10657,32 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="F58" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G58" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="H58" t="n">
-        <v>39</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>User Experience</t>
+          <t>Technical Communication</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 02 (B- Block)</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -10691,32 +10691,32 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="F59" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>EGC 121-A</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>An Introduction to Accessibility in the Global South</t>
+          <t>Computer Architecture</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>R305</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -10725,32 +10725,32 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="F60" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="H60" t="n">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>An Introduction to Accessibility in the Global South</t>
+          <t>Computer Architecture</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>A314</t>
+          <t>A204</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -10759,32 +10759,32 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="F61" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="G61" t="n">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="H61" t="n">
-        <v>5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>EGC 123-A</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Technology, Regulation and Law</t>
+          <t>Computer Networks</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -10793,32 +10793,32 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="H62" t="n">
-        <v>18</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Technology, Regulation and Law</t>
+          <t>Computer Networks</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>A106</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -10827,2124 +10827,16 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G63" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="H63" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>DHS 611</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Research and Publication Ethics</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Ramanujan Basement 03 (C- Block)</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>12</v>
-      </c>
-      <c r="F64" t="n">
-        <v>26</v>
-      </c>
-      <c r="G64" t="n">
-        <v>80</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>DHS 611</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Research and Publication Ethics</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Ramanujan Basement 04 (D- Block)</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>12</v>
-      </c>
-      <c r="F65" t="n">
-        <v>27</v>
-      </c>
-      <c r="G65" t="n">
-        <v>80</v>
-      </c>
-      <c r="H65" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>ECE 212</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Analog Circuits</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Ramanujan Basement 01 (A- Block)</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>61</v>
-      </c>
-      <c r="F66" t="n">
-        <v>24</v>
-      </c>
-      <c r="G66" t="n">
-        <v>80</v>
-      </c>
-      <c r="H66" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>ECE 212</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Analog Circuits</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Ramanujan Basement 04 (D- Block)</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>61</v>
-      </c>
-      <c r="F67" t="n">
-        <v>27</v>
-      </c>
-      <c r="G67" t="n">
-        <v>80</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>ECE 212</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Analog Circuits</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Ramanujan Basement 05 (E- Block)</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>61</v>
-      </c>
-      <c r="F68" t="n">
-        <v>28</v>
-      </c>
-      <c r="G68" t="n">
-        <v>80</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>ECE 212P</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Analog Circuits Lab</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>A317 HidesLab</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>ECE Lab</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>61</v>
-      </c>
-      <c r="F69" t="n">
-        <v>18</v>
-      </c>
-      <c r="G69" t="n">
-        <v>65</v>
-      </c>
-      <c r="H69" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>ECE 303</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Principles of Communication Systems</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Ramanujan Basement 01 (A- Block)</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>61</v>
-      </c>
-      <c r="F70" t="n">
-        <v>24</v>
-      </c>
-      <c r="G70" t="n">
-        <v>80</v>
-      </c>
-      <c r="H70" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>ECE 303P</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Principles of Communication Systems Lab</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>A317 HidesLab</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>ECE Lab</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>61</v>
-      </c>
-      <c r="F71" t="n">
-        <v>18</v>
-      </c>
-      <c r="G71" t="n">
-        <v>65</v>
-      </c>
-      <c r="H71" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>ECE 304</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Signal Processing</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>A308</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>61</v>
-      </c>
-      <c r="F72" t="n">
-        <v>15</v>
-      </c>
-      <c r="G72" t="n">
-        <v>40</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>ECE 304</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Signal Processing</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Ramanujan Basement 01 (A- Block)</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>61</v>
-      </c>
-      <c r="F73" t="n">
-        <v>24</v>
-      </c>
-      <c r="G73" t="n">
-        <v>80</v>
-      </c>
-      <c r="H73" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>ECE 304</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Signal Processing</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Ramanujan Basement 02 (B- Block)</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>61</v>
-      </c>
-      <c r="F74" t="n">
-        <v>25</v>
-      </c>
-      <c r="G74" t="n">
-        <v>80</v>
-      </c>
-      <c r="H74" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>EGC 301</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Operating Systems</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>R401(Amanthran)</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>193</v>
-      </c>
-      <c r="F75" t="n">
-        <v>22</v>
-      </c>
-      <c r="G75" t="n">
-        <v>160</v>
-      </c>
-      <c r="H75" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>EGC 301</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Operating Systems</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Ramanujan Basement 03 (C- Block)</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>193</v>
-      </c>
-      <c r="F76" t="n">
-        <v>26</v>
-      </c>
-      <c r="G76" t="n">
-        <v>80</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>EGC 301</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Operating Systems</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Ramanujan Basement 05 (E- Block)</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>193</v>
-      </c>
-      <c r="F77" t="n">
-        <v>28</v>
-      </c>
-      <c r="G77" t="n">
-        <v>80</v>
-      </c>
-      <c r="H77" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>VLS 603</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Electronic Systems Packaging</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>R401(Amanthran)</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>33</v>
-      </c>
-      <c r="F78" t="n">
-        <v>22</v>
-      </c>
-      <c r="G78" t="n">
-        <v>160</v>
-      </c>
-      <c r="H78" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>VLS 804</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Analog Power ICs</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>R306</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>31</v>
-      </c>
-      <c r="F79" t="n">
-        <v>9</v>
-      </c>
-      <c r="G79" t="n">
-        <v>20</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>VLS 804</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Analog Power ICs</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>R203</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>31</v>
-      </c>
-      <c r="F80" t="n">
-        <v>10</v>
-      </c>
-      <c r="G80" t="n">
-        <v>230</v>
-      </c>
-      <c r="H80" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>CSE 102-A</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Data Structures and Algorithms</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>159</v>
-      </c>
-      <c r="F81" t="n">
-        <v>2</v>
-      </c>
-      <c r="G81" t="n">
-        <v>60</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>CSE 102-A</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Data Structures and Algorithms</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>A307</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>159</v>
-      </c>
-      <c r="F82" t="n">
-        <v>14</v>
-      </c>
-      <c r="G82" t="n">
-        <v>110</v>
-      </c>
-      <c r="H82" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>CSE 102-A</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Data Structures and Algorithms</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Ramanujan Basement 04 (D- Block)</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>159</v>
-      </c>
-      <c r="F83" t="n">
-        <v>27</v>
-      </c>
-      <c r="G83" t="n">
-        <v>80</v>
-      </c>
-      <c r="H83" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>CSE 102-B</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Data Structures and Algorithms</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>123</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1</v>
-      </c>
-      <c r="G84" t="n">
-        <v>210</v>
-      </c>
-      <c r="H84" t="n">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>CSE 102 P-A</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Data Structures and Algorithms lab</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>158</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" t="n">
-        <v>60</v>
-      </c>
-      <c r="H85" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>CSE 102 P-A</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Data Structures and Algorithms lab</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>158</v>
-      </c>
-      <c r="F86" t="n">
-        <v>12</v>
-      </c>
-      <c r="G86" t="n">
-        <v>60</v>
-      </c>
-      <c r="H86" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>CSE 102 P-A</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Data Structures and Algorithms lab</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Ramanujan Basement 03 (C- Block)</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>158</v>
-      </c>
-      <c r="F87" t="n">
-        <v>26</v>
-      </c>
-      <c r="G87" t="n">
-        <v>80</v>
-      </c>
-      <c r="H87" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>CSE 102 P-B</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Data Structures and Algorithms lab</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>123</v>
-      </c>
-      <c r="F88" t="n">
-        <v>1</v>
-      </c>
-      <c r="G88" t="n">
-        <v>210</v>
-      </c>
-      <c r="H88" t="n">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>CSE 104-A</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Linear Algebra</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>158</v>
-      </c>
-      <c r="F89" t="n">
-        <v>2</v>
-      </c>
-      <c r="G89" t="n">
-        <v>60</v>
-      </c>
-      <c r="H89" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>CSE 104-A</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Linear Algebra</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>R105</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>158</v>
-      </c>
-      <c r="F90" t="n">
-        <v>3</v>
-      </c>
-      <c r="G90" t="n">
-        <v>70</v>
-      </c>
-      <c r="H90" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>CSE 104-A</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Linear Algebra</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>A308</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>158</v>
-      </c>
-      <c r="F91" t="n">
-        <v>15</v>
-      </c>
-      <c r="G91" t="n">
-        <v>40</v>
-      </c>
-      <c r="H91" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>CSE 104-B</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Linear Algebra</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>123</v>
-      </c>
-      <c r="F92" t="n">
-        <v>12</v>
-      </c>
-      <c r="G92" t="n">
-        <v>60</v>
-      </c>
-      <c r="H92" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>CSE 104-B</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Linear Algebra</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>A106</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>123</v>
-      </c>
-      <c r="F93" t="n">
-        <v>13</v>
-      </c>
-      <c r="G93" t="n">
-        <v>200</v>
-      </c>
-      <c r="H93" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>DAS 101-B</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Database Systems</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>R105</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
         <v>95</v>
-      </c>
-      <c r="F94" t="n">
-        <v>3</v>
-      </c>
-      <c r="G94" t="n">
-        <v>70</v>
-      </c>
-      <c r="H94" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>DAS 101-B</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Database Systems</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>R306</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
-        <v>95</v>
-      </c>
-      <c r="F95" t="n">
-        <v>9</v>
-      </c>
-      <c r="G95" t="n">
-        <v>20</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>DAS 101-B</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Database Systems</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E96" t="n">
-        <v>95</v>
-      </c>
-      <c r="F96" t="n">
-        <v>12</v>
-      </c>
-      <c r="G96" t="n">
-        <v>60</v>
-      </c>
-      <c r="H96" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>DAS 101-A</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Database Systems</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E97" t="n">
-        <v>96</v>
-      </c>
-      <c r="F97" t="n">
-        <v>2</v>
-      </c>
-      <c r="G97" t="n">
-        <v>60</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>DAS 101-A</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Database Systems</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E98" t="n">
-        <v>96</v>
-      </c>
-      <c r="F98" t="n">
-        <v>12</v>
-      </c>
-      <c r="G98" t="n">
-        <v>60</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>DAS 101-A</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Database Systems</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>A307</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E99" t="n">
-        <v>96</v>
-      </c>
-      <c r="F99" t="n">
-        <v>14</v>
-      </c>
-      <c r="G99" t="n">
-        <v>110</v>
-      </c>
-      <c r="H99" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>DAS 101P-B</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Database Lab</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>R107/R108 (LAB)</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>CSE Lab</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
-        <v>95</v>
-      </c>
-      <c r="F100" t="n">
-        <v>5</v>
-      </c>
-      <c r="G100" t="n">
-        <v>115</v>
-      </c>
-      <c r="H100" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>DAS 101P-A</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Database Lab</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>R106 (LAB)</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>CSE Lab</t>
-        </is>
-      </c>
-      <c r="E101" t="n">
-        <v>96</v>
-      </c>
-      <c r="F101" t="n">
-        <v>4</v>
-      </c>
-      <c r="G101" t="n">
-        <v>70</v>
-      </c>
-      <c r="H101" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>DAS 101P-A</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Database Lab</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>R107/R108 (LAB)</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>CSE Lab</t>
-        </is>
-      </c>
-      <c r="E102" t="n">
-        <v>96</v>
-      </c>
-      <c r="F102" t="n">
-        <v>5</v>
-      </c>
-      <c r="G102" t="n">
-        <v>115</v>
-      </c>
-      <c r="H102" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>DHS 101B-A</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Economics-II</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>R106 (LAB)</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>CSE Lab</t>
-        </is>
-      </c>
-      <c r="E103" t="n">
-        <v>158</v>
-      </c>
-      <c r="F103" t="n">
-        <v>4</v>
-      </c>
-      <c r="G103" t="n">
-        <v>70</v>
-      </c>
-      <c r="H103" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>DHS 101B-A</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Economics-II</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>R107/R108 (LAB)</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>CSE Lab</t>
-        </is>
-      </c>
-      <c r="E104" t="n">
-        <v>158</v>
-      </c>
-      <c r="F104" t="n">
-        <v>5</v>
-      </c>
-      <c r="G104" t="n">
-        <v>115</v>
-      </c>
-      <c r="H104" t="n">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>DHS 101B-B</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Economics-II</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>R106 (LAB)</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>CSE Lab</t>
-        </is>
-      </c>
-      <c r="E105" t="n">
-        <v>123</v>
-      </c>
-      <c r="F105" t="n">
-        <v>4</v>
-      </c>
-      <c r="G105" t="n">
-        <v>70</v>
-      </c>
-      <c r="H105" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>DHS 101B-B</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Economics-II</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>R107/R108 (LAB)</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>CSE Lab</t>
-        </is>
-      </c>
-      <c r="E106" t="n">
-        <v>123</v>
-      </c>
-      <c r="F106" t="n">
-        <v>5</v>
-      </c>
-      <c r="G106" t="n">
-        <v>115</v>
-      </c>
-      <c r="H106" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>DHS 201-A</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Technical Communication</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E107" t="n">
-        <v>158</v>
-      </c>
-      <c r="F107" t="n">
-        <v>2</v>
-      </c>
-      <c r="G107" t="n">
-        <v>60</v>
-      </c>
-      <c r="H107" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>DHS 201-A</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Technical Communication</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>R105</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E108" t="n">
-        <v>158</v>
-      </c>
-      <c r="F108" t="n">
-        <v>3</v>
-      </c>
-      <c r="G108" t="n">
-        <v>70</v>
-      </c>
-      <c r="H108" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>DHS 201-A</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Technical Communication</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>A310</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E109" t="n">
-        <v>158</v>
-      </c>
-      <c r="F109" t="n">
-        <v>16</v>
-      </c>
-      <c r="G109" t="n">
-        <v>60</v>
-      </c>
-      <c r="H109" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>DHS 201-A</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Technical Communication</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E110" t="n">
-        <v>158</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G110" t="n">
-        <v>60</v>
-      </c>
-      <c r="H110" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>DHS 201-A</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Technical Communication</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>R105</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E111" t="n">
-        <v>158</v>
-      </c>
-      <c r="F111" t="n">
-        <v>3</v>
-      </c>
-      <c r="G111" t="n">
-        <v>70</v>
-      </c>
-      <c r="H111" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>DHS 201-A</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Technical Communication</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>R110</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E112" t="n">
-        <v>158</v>
-      </c>
-      <c r="F112" t="n">
-        <v>6</v>
-      </c>
-      <c r="G112" t="n">
-        <v>70</v>
-      </c>
-      <c r="H112" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>DHS 201-B</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Technical Communication</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E113" t="n">
-        <v>123</v>
-      </c>
-      <c r="F113" t="n">
-        <v>2</v>
-      </c>
-      <c r="G113" t="n">
-        <v>60</v>
-      </c>
-      <c r="H113" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>DHS 201-B</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Technical Communication</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>A310</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E114" t="n">
-        <v>123</v>
-      </c>
-      <c r="F114" t="n">
-        <v>16</v>
-      </c>
-      <c r="G114" t="n">
-        <v>60</v>
-      </c>
-      <c r="H114" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>DHS 201-B</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Technical Communication</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Ramanujan Basement 05 (E- Block)</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
-        <v>123</v>
-      </c>
-      <c r="F115" t="n">
-        <v>28</v>
-      </c>
-      <c r="G115" t="n">
-        <v>80</v>
-      </c>
-      <c r="H115" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>EGC 121-A</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Computer Architecture</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E116" t="n">
-        <v>127</v>
-      </c>
-      <c r="F116" t="n">
-        <v>12</v>
-      </c>
-      <c r="G116" t="n">
-        <v>60</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>EGC 121-A</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Computer Architecture</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>A106</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E117" t="n">
-        <v>127</v>
-      </c>
-      <c r="F117" t="n">
-        <v>13</v>
-      </c>
-      <c r="G117" t="n">
-        <v>200</v>
-      </c>
-      <c r="H117" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>EGC 121-A</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Computer Architecture</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Ramanujan Basement 05 (E- Block)</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E118" t="n">
-        <v>127</v>
-      </c>
-      <c r="F118" t="n">
-        <v>28</v>
-      </c>
-      <c r="G118" t="n">
-        <v>80</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>EGC 121-B</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Computer Architecture</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>A303</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E119" t="n">
-        <v>95</v>
-      </c>
-      <c r="F119" t="n">
-        <v>11</v>
-      </c>
-      <c r="G119" t="n">
-        <v>90</v>
-      </c>
-      <c r="H119" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>EGC 121-B</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Computer Architecture</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E120" t="n">
-        <v>95</v>
-      </c>
-      <c r="F120" t="n">
-        <v>12</v>
-      </c>
-      <c r="G120" t="n">
-        <v>60</v>
-      </c>
-      <c r="H120" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>EGC 123-A</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Computer Networks</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E121" t="n">
-        <v>127</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1</v>
-      </c>
-      <c r="G121" t="n">
-        <v>210</v>
-      </c>
-      <c r="H121" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>EGC 123-A</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Computer Networks</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E122" t="n">
-        <v>127</v>
-      </c>
-      <c r="F122" t="n">
-        <v>12</v>
-      </c>
-      <c r="G122" t="n">
-        <v>60</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>EGC 123-A</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Computer Networks</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>A310</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E123" t="n">
-        <v>127</v>
-      </c>
-      <c r="F123" t="n">
-        <v>16</v>
-      </c>
-      <c r="G123" t="n">
-        <v>60</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>EGC 123-B</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Computer Networks</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E124" t="n">
-        <v>95</v>
-      </c>
-      <c r="F124" t="n">
-        <v>12</v>
-      </c>
-      <c r="G124" t="n">
-        <v>60</v>
-      </c>
-      <c r="H124" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>EGC 123-B</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Computer Networks</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>A310</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E125" t="n">
-        <v>95</v>
-      </c>
-      <c r="F125" t="n">
-        <v>16</v>
-      </c>
-      <c r="G125" t="n">
-        <v>60</v>
-      </c>
-      <c r="H125" t="n">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/timetable_report.xlsx
+++ b/timetable_report.xlsx
@@ -562,12 +562,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CSE 102-A</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -579,12 +579,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -596,12 +596,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>CSE 104-A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -613,12 +613,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ECE 303</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -630,29 +630,29 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CSE 104-A</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CSE 606</t>
+          <t>AIM 845</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -664,12 +664,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>DAS 101P-A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -681,29 +681,29 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AIM 845</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>DAS 101P-A</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>CSE 104-A</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DAS 101P-A</t>
+          <t>DHS 101B-A</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -715,12 +715,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DAS 101P-A</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -732,12 +732,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -749,12 +749,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AIM 821</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -766,12 +766,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>VLS 804</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -783,12 +783,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>AIM 845</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>VLS 804</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -800,12 +800,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AIM 845</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>VLS 603</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -817,12 +817,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>CSE 102-A</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>VLS 603</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -834,12 +834,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CSE 102-A</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -851,12 +851,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -868,12 +868,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -885,12 +885,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -902,12 +902,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -919,12 +919,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AIM 821</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -936,12 +936,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -953,12 +953,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -970,12 +970,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>CSE 102-A</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>CSE 104-A</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -987,12 +987,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CSE 102-A</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CSE 104-A</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1004,12 +1004,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1021,29 +1021,29 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>DHS 101B-A</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1055,12 +1055,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>AIM 821</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1072,12 +1072,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>AIM 102</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1089,12 +1089,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>AIM 102</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1106,12 +1106,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1123,7 +1123,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1140,12 +1140,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1174,12 +1174,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ECE 303</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1191,12 +1191,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1208,12 +1208,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>CSE 102 P-A</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1225,12 +1225,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1242,17 +1242,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CSE 102 P-A</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AIM 821</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1276,12 +1276,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>DHS 108</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1293,12 +1293,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1310,12 +1310,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DHS 108</t>
+          <t>DHS 101B-A</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DHS 306</t>
+          <t>DHS 201-A</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1327,12 +1327,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>AIM 821</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1344,29 +1344,29 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>AIM 102</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>AIM 102</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1378,29 +1378,29 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>DAS 101-A</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1412,7 +1412,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>DAS 101-A</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1422,19 +1422,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>DHS 611</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1446,12 +1446,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DHS 611</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1463,12 +1463,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>DAS 101-A</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1480,12 +1480,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DAS 101-A</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1497,12 +1497,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>CSE 102 P-A</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>CSE 104-A</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CSE 104-A</t>
+          <t>DHS 201-A</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1531,29 +1531,29 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>EGC 123-A</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CSE 102 P-A</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>AIM 845</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1565,12 +1565,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1582,12 +1582,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>AIM 845</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1599,12 +1599,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1616,12 +1616,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1633,12 +1633,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1650,12 +1650,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1667,12 +1667,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1684,12 +1684,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1701,12 +1701,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1718,12 +1718,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>CSE 102 P-A</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>EGC 123-A</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1735,12 +1735,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1752,12 +1752,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CSE 102 P-A</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>EGC 123-A</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1769,12 +1769,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>AIM 101</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1786,12 +1786,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1803,12 +1803,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>VLS 804</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1820,12 +1820,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>DHS 108</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ECE 303</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1837,12 +1837,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1854,29 +1854,29 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>VLS 804</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>DHS 108</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1888,29 +1888,29 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>AIM 102</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1922,12 +1922,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1939,12 +1939,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1956,12 +1956,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>AIM 101</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1973,12 +1973,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -1990,12 +1990,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2007,12 +2007,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>AIM 101</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>DAS 101-A</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2024,12 +2024,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>DHS 201-A</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>EGC 123-A</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2041,12 +2041,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2058,12 +2058,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>DHS 108</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DAS 101-A</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2075,12 +2075,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>EGC 123-A</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2092,12 +2092,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>AIM 102</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2109,12 +2109,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>DHS 108</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>AIM 845</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2126,12 +2126,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2143,12 +2143,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>AIM 102</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2160,12 +2160,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>AIM 845</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2177,12 +2177,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2194,12 +2194,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2211,12 +2211,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>AIM 101</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2228,12 +2228,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>CSE 102 P-A</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>DHS 306</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2245,12 +2245,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>AIM 101</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2262,12 +2262,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>AIM 101</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2279,12 +2279,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CSE 102 P-A</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2296,12 +2296,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
+          <t>AIM 831</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
           <t>CSE 824</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>DHS 308</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2313,12 +2313,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2335,24 +2335,24 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2364,29 +2364,29 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2398,12 +2398,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>AIM 845</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>VLS 804</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2415,12 +2415,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>COM 605</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2432,12 +2432,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>AIM 845</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>VLS 804</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>COM 605</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2466,12 +2466,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2483,12 +2483,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>AIM 101</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2500,12 +2500,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2517,12 +2517,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>AIM 101</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2534,12 +2534,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2551,12 +2551,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>AIM 101</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2585,29 +2585,29 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>AIM 101</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>DHS 108</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CSE 606</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2619,12 +2619,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>DHS 201-A</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>DHS 108</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2636,12 +2636,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2653,12 +2653,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2670,12 +2670,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2687,12 +2687,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>CSE 606</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2704,29 +2704,29 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2738,12 +2738,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2755,12 +2755,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>DHS 306</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2772,12 +2772,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>DAS 101P-A</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2789,12 +2789,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2806,12 +2806,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>DAS 101P-A</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2823,12 +2823,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -2840,12 +2840,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>CSE 104-A</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>EGC 121-A</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2857,12 +2857,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>CSE 104-A</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>EGC 121-A</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2874,29 +2874,29 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>AIM 845</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2908,7 +2908,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>AIM 845</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2925,12 +2925,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -2942,12 +2942,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -2959,12 +2959,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>CSE 102-A</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>DHS 201-A</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2976,12 +2976,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>CSE 102-A</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -2993,12 +2993,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3010,29 +3010,29 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3044,12 +3044,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3061,12 +3061,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3078,12 +3078,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3095,12 +3095,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3112,12 +3112,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>CSE 104-A</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3129,12 +3129,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>AIM 845</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3146,12 +3146,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3163,12 +3163,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>CSE 606</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3180,12 +3180,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>AIM 845</t>
+          <t>CSE 102-A</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>CSE 606</t>
+          <t>EGC 123-A</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3197,12 +3197,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3214,12 +3214,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3231,12 +3231,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>CSE 102-A</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>EGC 123-A</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3248,12 +3248,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3265,12 +3265,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ECE 303</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3282,12 +3282,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3299,12 +3299,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>DAS 101P-A</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3316,12 +3316,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>DAS 101P-A</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3333,12 +3333,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ECE 303</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3350,12 +3350,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>DAS 101P-A</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3367,12 +3367,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>DAS 101P-A</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>DAS 101-A</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3384,12 +3384,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>DHS 101B-A</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>EGC 123-A</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3401,12 +3401,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3418,12 +3418,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>DAS 101-A</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3435,12 +3435,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>AIM 821</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>AIM 845</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3469,12 +3469,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>CSE 606</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3486,12 +3486,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>AIM 845</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>VLS 603</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -3503,12 +3503,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>CSE 102-A</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3520,12 +3520,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>VLS 603</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3537,12 +3537,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -3554,12 +3554,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>CSE 102-A</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3571,12 +3571,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3588,12 +3588,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -3605,12 +3605,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -3622,12 +3622,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3639,12 +3639,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3656,12 +3656,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -3673,12 +3673,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>AIM 821</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3690,29 +3690,29 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>AIM 821</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -3724,7 +3724,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -3741,12 +3741,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>CSE 102-A</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>CSE 102 P-A</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3758,12 +3758,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>CSE 102-A</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>DHS 101B-A</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3775,7 +3775,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -3792,12 +3792,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>CSE 102-A</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>CSE 102 P-A</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -3809,12 +3809,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3826,12 +3826,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>DHS 101B-A</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -3843,12 +3843,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ECE 303</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -3860,12 +3860,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -3877,12 +3877,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>AIM 821</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -3894,29 +3894,29 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -3928,12 +3928,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>DAS 101-A</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>DAS 101P-A</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3945,12 +3945,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>DHS 306</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -3962,29 +3962,29 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>DAS 101-A</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>DAS 101P-A</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -3996,12 +3996,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4018,7 +4018,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -4047,12 +4047,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>AIM 102</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4064,12 +4064,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -4098,12 +4098,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4115,12 +4115,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4132,12 +4132,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4149,12 +4149,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>DHS 611</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4166,12 +4166,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>DHS 611</t>
+          <t>VLS 603</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4183,12 +4183,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>VLS 603</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4200,12 +4200,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -4217,12 +4217,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
+          <t>CSE 102 P-A</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
           <t>DHS 101B-A</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>EGC 121-A</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4234,12 +4234,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4251,12 +4251,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -4268,12 +4268,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4285,12 +4285,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4302,12 +4302,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4319,12 +4319,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>COM 605</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -4336,12 +4336,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>COM 605</t>
+          <t>DHS 101B-A</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>EGC 121-A</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -4370,12 +4370,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>AIM 102</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -4404,12 +4404,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>AIM 102</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -4421,12 +4421,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -4438,12 +4438,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>CSE 102 P-A</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>EGC 121-A</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -4455,12 +4455,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>CSE 102 P-A</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>EGC 121-A</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4472,12 +4472,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>DHS 306</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -4489,29 +4489,29 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -4523,12 +4523,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -4540,12 +4540,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -4557,12 +4557,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -4574,12 +4574,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -4591,12 +4591,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -4608,12 +4608,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>DAS 101-A</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -4625,12 +4625,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>DAS 101-A</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -4642,12 +4642,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -4659,7 +4659,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -4676,12 +4676,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -4693,12 +4693,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -4710,12 +4710,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>VLS 804</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -4727,12 +4727,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>VLS 804</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -4744,12 +4744,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>CSE 102 P-A</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -4761,12 +4761,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -4778,46 +4778,46 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>DHS 201-A</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>EGC 121-A</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -4829,12 +4829,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>DHS 108</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>EGC 121-A</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -4846,12 +4846,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>DHS 108</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -4863,12 +4863,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>VLS 603</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>VLS 804</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -4880,12 +4880,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>VLS 603</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>VLS 804</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -4897,12 +4897,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -4914,12 +4914,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>DHS 306</t>
+          <t>AIM 101</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -4931,7 +4931,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>AIM 101</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -4948,12 +4948,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -4970,7 +4970,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -4982,12 +4982,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>DHS 306</t>
+          <t>DAS 101P-A</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -4999,12 +4999,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>DAS 101P-A</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -5016,12 +5016,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -5033,12 +5033,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -5050,24 +5050,24 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -5089,24 +5089,24 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -5118,12 +5118,12 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>VLS 603</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5135,12 +5135,12 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>VLS 603</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5152,29 +5152,29 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>AIM 101</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>ECE 303</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>AIM 101</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -5203,12 +5203,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -5220,12 +5220,12 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>CSE 104-A</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -5237,12 +5237,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>CSE 104-A</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -5254,12 +5254,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>DHS 611</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -5271,12 +5271,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>DHS 611</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -5322,29 +5322,29 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>CSE 606</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -5356,12 +5356,12 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>DHS 306</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>DHS 108</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -5373,12 +5373,12 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>DHS 108</t>
+          <t>DAS 101-A</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -5390,29 +5390,29 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>DAS 101-A</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -5429,7 +5429,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -5441,12 +5441,12 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>CSE 104-A</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>DHS 201-A</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -5458,12 +5458,12 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>CSE 104-A</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -5475,12 +5475,12 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -5492,12 +5492,12 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -5509,12 +5509,12 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ECE 303</t>
+          <t>DHS 201-A</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -5526,12 +5526,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -5543,12 +5543,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -5560,12 +5560,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -5577,12 +5577,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>AIM 845</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -5594,12 +5594,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>AIM 845</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -5611,12 +5611,12 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -5628,12 +5628,12 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -5645,12 +5645,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -5662,29 +5662,29 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
+          <t>AIM 831</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
           <t>AMS 404</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>CSE 704</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -5696,12 +5696,12 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -5713,12 +5713,12 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -5730,12 +5730,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>CSE 104-A</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>EGC 123-A</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -5747,12 +5747,12 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>CSE 104-A</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>EGC 123-A</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -5764,12 +5764,12 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -5781,7 +5781,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -5798,12 +5798,12 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -5815,12 +5815,12 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>CSE 606</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -5832,29 +5832,29 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>DAS 101P-A</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>DAS 101P-A</t>
+          <t>AIM 101</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>AIM 102</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -5866,12 +5866,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>AIM 101</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>AIM 102</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -5927,7 +5927,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -6154,7 +6154,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -6162,12 +6162,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6197,7 +6197,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -6205,12 +6205,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -6240,7 +6240,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -6248,12 +6248,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -6283,7 +6283,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -6291,12 +6291,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -6334,12 +6334,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -6377,12 +6377,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -6420,12 +6420,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -6455,7 +6455,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -6506,12 +6506,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -6549,12 +6549,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -6592,12 +6592,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -6635,12 +6635,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -6678,12 +6678,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -6721,12 +6721,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -6799,7 +6799,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -6850,12 +6850,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -6893,12 +6893,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -6928,7 +6928,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -6936,12 +6936,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -6971,7 +6971,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -6979,12 +6979,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -7014,7 +7014,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -7022,12 +7022,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -7057,7 +7057,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -7065,12 +7065,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -7100,7 +7100,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -7108,12 +7108,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -7151,12 +7151,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -7186,7 +7186,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -7194,12 +7194,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -7272,7 +7272,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -7280,12 +7280,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -7315,7 +7315,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -7366,12 +7366,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -7409,12 +7409,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -7444,7 +7444,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -7452,12 +7452,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -7495,12 +7495,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -7530,7 +7530,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -7538,12 +7538,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -7702,7 +7702,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -7710,12 +7710,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -7753,12 +7753,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -7788,7 +7788,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -7831,7 +7831,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -7839,12 +7839,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -7874,7 +7874,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -7882,12 +7882,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -7917,7 +7917,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -7925,12 +7925,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -7968,12 +7968,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -8003,7 +8003,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -8011,12 +8011,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -8097,12 +8097,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -8132,7 +8132,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -8140,12 +8140,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -8183,12 +8183,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -8218,7 +8218,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -8226,12 +8226,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -8269,12 +8269,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -8286,7 +8286,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -8295,7 +8295,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -8329,7 +8329,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>DHS 101B-A</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -8338,7 +8338,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -8355,12 +8355,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -8390,7 +8390,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -8398,12 +8398,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -8441,12 +8441,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -8484,12 +8484,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -8527,12 +8527,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -8562,7 +8562,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -8570,12 +8570,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -8778,7 +8778,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A303</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -8790,10 +8790,10 @@
         <v>59</v>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H3" t="n">
         <v>59</v>
@@ -8812,7 +8812,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R110</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -8824,10 +8824,10 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H4" t="n">
         <v>20</v>
@@ -8846,7 +8846,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A307</t>
+          <t>R105</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -8858,10 +8858,10 @@
         <v>21</v>
       </c>
       <c r="F5" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="H5" t="n">
         <v>21</v>
@@ -8948,7 +8948,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R401(Amanthran)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -8960,10 +8960,10 @@
         <v>93</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G8" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="H8" t="n">
         <v>93</v>
@@ -8982,7 +8982,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A310</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -8994,10 +8994,10 @@
         <v>35</v>
       </c>
       <c r="F9" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="H9" t="n">
         <v>35</v>
@@ -9016,7 +9016,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>R105</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -9028,10 +9028,10 @@
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H10" t="n">
         <v>7</v>
@@ -9050,7 +9050,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>Ramanujan Basement 05 (E- Block)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -9062,10 +9062,10 @@
         <v>26</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="G11" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H11" t="n">
         <v>26</v>
@@ -9084,7 +9084,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 01 (A- Block)</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -9096,10 +9096,10 @@
         <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -9118,7 +9118,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A106</t>
+          <t>R110</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -9130,10 +9130,10 @@
         <v>39</v>
       </c>
       <c r="F13" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="H13" t="n">
         <v>39</v>
@@ -9152,7 +9152,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A204</t>
+          <t>Ramanujan Basement 04 (D- Block)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -9164,10 +9164,10 @@
         <v>79</v>
       </c>
       <c r="F14" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G14" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H14" t="n">
         <v>79</v>
@@ -9186,7 +9186,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 05 (E- Block)</t>
+          <t>Ramanujan Basement 03 (C- Block)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -9198,7 +9198,7 @@
         <v>75</v>
       </c>
       <c r="F15" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" t="n">
         <v>80</v>
@@ -9220,7 +9220,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -9232,7 +9232,7 @@
         <v>12</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>60</v>
@@ -9288,7 +9288,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>A304/A305</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -9300,10 +9300,10 @@
         <v>14</v>
       </c>
       <c r="F18" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G18" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="H18" t="n">
         <v>14</v>
@@ -9322,7 +9322,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R401(Amanthran)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -9334,10 +9334,10 @@
         <v>115</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G19" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="H19" t="n">
         <v>115</v>
@@ -9356,7 +9356,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R110</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -9368,10 +9368,10 @@
         <v>41</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="H20" t="n">
         <v>41</v>
@@ -9390,7 +9390,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 02 (B- Block)</t>
+          <t>R105</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -9402,10 +9402,10 @@
         <v>25</v>
       </c>
       <c r="F21" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H21" t="n">
         <v>25</v>
@@ -9424,7 +9424,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>R401(Amanthran)</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -9436,10 +9436,10 @@
         <v>146</v>
       </c>
       <c r="F22" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="H22" t="n">
         <v>146</v>
@@ -9458,7 +9458,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -9470,10 +9470,10 @@
         <v>155</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="H23" t="n">
         <v>155</v>
@@ -9526,7 +9526,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A304/A305</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -9538,10 +9538,10 @@
         <v>53</v>
       </c>
       <c r="F25" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H25" t="n">
         <v>53</v>
@@ -9560,7 +9560,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 05 (E- Block)</t>
+          <t>Ramanujan Basement 01 (A- Block)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -9572,7 +9572,7 @@
         <v>72</v>
       </c>
       <c r="F26" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G26" t="n">
         <v>80</v>
@@ -9594,7 +9594,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 03 (C- Block)</t>
+          <t>R105</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -9606,10 +9606,10 @@
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H27" t="n">
         <v>7</v>
@@ -9662,7 +9662,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A303</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -9674,10 +9674,10 @@
         <v>36</v>
       </c>
       <c r="F29" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H29" t="n">
         <v>36</v>
@@ -9696,7 +9696,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 03 (C- Block)</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -9708,10 +9708,10 @@
         <v>34</v>
       </c>
       <c r="F30" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="H30" t="n">
         <v>34</v>
@@ -9730,7 +9730,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 05 (E- Block)</t>
+          <t>A304/A305</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -9742,10 +9742,10 @@
         <v>40</v>
       </c>
       <c r="F31" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G31" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H31" t="n">
         <v>40</v>
@@ -9764,7 +9764,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -9776,10 +9776,10 @@
         <v>25</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="H32" t="n">
         <v>25</v>
@@ -9798,7 +9798,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A304/A305</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -9810,10 +9810,10 @@
         <v>78</v>
       </c>
       <c r="F33" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="H33" t="n">
         <v>78</v>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A303</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -9844,10 +9844,10 @@
         <v>12</v>
       </c>
       <c r="F34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G34" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H34" t="n">
         <v>12</v>
@@ -9934,7 +9934,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>R105</t>
+          <t>Ramanujan Basement 02 (B- Block)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -9946,10 +9946,10 @@
         <v>61</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="G37" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H37" t="n">
         <v>61</v>
@@ -10002,7 +10002,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>A204</t>
+          <t>Ramanujan Basement 03 (C- Block)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -10014,10 +10014,10 @@
         <v>61</v>
       </c>
       <c r="F39" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G39" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H39" t="n">
         <v>61</v>
@@ -10036,7 +10036,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>R203</t>
+          <t>A106</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -10048,10 +10048,10 @@
         <v>193</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G40" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="H40" t="n">
         <v>193</v>
@@ -10070,7 +10070,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>A307</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -10082,10 +10082,10 @@
         <v>33</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G41" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="H41" t="n">
         <v>33</v>
@@ -10104,7 +10104,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 05 (E- Block)</t>
+          <t>Ramanujan Basement 04 (D- Block)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -10116,7 +10116,7 @@
         <v>31</v>
       </c>
       <c r="F42" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G42" t="n">
         <v>80</v>
@@ -10138,7 +10138,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>A106</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -10150,10 +10150,10 @@
         <v>159</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G43" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="H43" t="n">
         <v>159</v>
@@ -10172,7 +10172,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>R401(Amanthran)</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -10184,10 +10184,10 @@
         <v>123</v>
       </c>
       <c r="F44" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="H44" t="n">
         <v>123</v>
@@ -10206,7 +10206,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>A106</t>
+          <t>R401(Amanthran)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -10218,10 +10218,10 @@
         <v>158</v>
       </c>
       <c r="F45" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G45" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="H45" t="n">
         <v>158</v>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>R401(Amanthran)</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -10252,10 +10252,10 @@
         <v>123</v>
       </c>
       <c r="F46" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="H46" t="n">
         <v>123</v>
@@ -10274,7 +10274,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>A106</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -10286,10 +10286,10 @@
         <v>158</v>
       </c>
       <c r="F47" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H47" t="n">
         <v>158</v>
@@ -10308,7 +10308,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>R203</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -10320,10 +10320,10 @@
         <v>123</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="H48" t="n">
         <v>123</v>
@@ -10342,7 +10342,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>A106</t>
+          <t>A307</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -10354,10 +10354,10 @@
         <v>95</v>
       </c>
       <c r="F49" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G49" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="H49" t="n">
         <v>95</v>
@@ -10468,7 +10468,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="F53" t="n">
         <v>4</v>
@@ -10496,13 +10496,13 @@
         <v>70</v>
       </c>
       <c r="H53" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="F54" t="n">
         <v>5</v>
@@ -10530,13 +10530,13 @@
         <v>115</v>
       </c>
       <c r="H54" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>DHS 101B-A</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -10555,7 +10555,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="F55" t="n">
         <v>4</v>
@@ -10564,13 +10564,13 @@
         <v>70</v>
       </c>
       <c r="H55" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>DHS 101B-A</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -10589,7 +10589,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="F56" t="n">
         <v>5</v>
@@ -10598,7 +10598,7 @@
         <v>115</v>
       </c>
       <c r="H56" t="n">
-        <v>53</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57">
@@ -10614,7 +10614,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>R401(Amanthran)</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -10626,10 +10626,10 @@
         <v>158</v>
       </c>
       <c r="F57" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="H57" t="n">
         <v>158</v>
@@ -10648,7 +10648,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>A106</t>
+          <t>R401(Amanthran)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -10660,10 +10660,10 @@
         <v>158</v>
       </c>
       <c r="F58" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G58" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="H58" t="n">
         <v>158</v>
@@ -10750,7 +10750,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>A204</t>
+          <t>A106</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -10762,10 +10762,10 @@
         <v>95</v>
       </c>
       <c r="F61" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G61" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="H61" t="n">
         <v>95</v>
@@ -10818,7 +10818,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>A106</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -10830,10 +10830,10 @@
         <v>95</v>
       </c>
       <c r="F63" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H63" t="n">
         <v>95</v>

--- a/timetable_report.xlsx
+++ b/timetable_report.xlsx
@@ -528,12 +528,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -545,12 +545,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>CSE 102-A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>DHS 101B-A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -579,12 +579,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECE 303</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -596,12 +596,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CSE 104-A</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -613,29 +613,29 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CSE 606</t>
+          <t>CSE 104-A</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -647,29 +647,29 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AIM 845</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>AIM 845</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DAS 101P-A</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -698,12 +698,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CSE 104-A</t>
+          <t>CSE 102-A</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>DHS 201-A</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -715,12 +715,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>DAS 101P-A</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -732,12 +732,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AIM 821</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -749,12 +749,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -766,12 +766,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>VLS 804</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -783,12 +783,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AIM 845</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>VLS 804</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -800,12 +800,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>AIM 845</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>VLS 603</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -817,12 +817,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CSE 102-A</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>VLS 603</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -834,12 +834,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -851,12 +851,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>CSE 102-A</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -868,12 +868,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -885,12 +885,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -902,12 +902,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AIM 821</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -919,12 +919,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -936,12 +936,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>AIM 102</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -953,12 +953,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -970,12 +970,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CSE 102-A</t>
+          <t>DHS 101B-A</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CSE 104-A</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -987,12 +987,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1004,12 +1004,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>CSE 102-A</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>CSE 104-A</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1021,29 +1021,29 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>DHS 201-A</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>EGC 121-A</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>AIM 821</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1072,29 +1072,29 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>AIM 102</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1106,12 +1106,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>AIM 102</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1140,12 +1140,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1157,12 +1157,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ECE 303</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1174,7 +1174,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1191,12 +1191,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1208,12 +1208,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CSE 102 P-A</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1225,12 +1225,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>AIM 821</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1242,12 +1242,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>CSE 102 P-A</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1276,12 +1276,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>DHS 108</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DHS 306</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1293,12 +1293,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>AIM 821</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1310,12 +1310,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>DHS 108</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1327,12 +1327,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1344,12 +1344,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>AIM 102</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1361,12 +1361,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1378,29 +1378,29 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>AIM 102</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DAS 101-A</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1412,29 +1412,29 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>DAS 101-A</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DHS 611</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1446,12 +1446,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1463,12 +1463,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DAS 101-A</t>
+          <t>DHS 611</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1497,12 +1497,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CSE 102 P-A</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CSE 104-A</t>
+          <t>DAS 101-A</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1514,12 +1514,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CSE 102 P-A</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1531,12 +1531,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>CSE 102 P-A</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>CSE 104-A</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1548,12 +1548,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>DHS 101B-A</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AIM 845</t>
+          <t>EGC 123-A</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1565,12 +1565,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1582,12 +1582,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>AIM 845</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1599,12 +1599,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1616,12 +1616,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1633,12 +1633,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1650,12 +1650,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1667,12 +1667,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1684,12 +1684,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1701,12 +1701,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1718,12 +1718,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CSE 102 P-A</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>EGC 123-A</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1735,12 +1735,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1752,12 +1752,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1769,29 +1769,29 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>CSE 102 P-A</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ECE 303</t>
+          <t>EGC 123-A</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>AIM 101</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1803,12 +1803,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>VLS 804</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1820,12 +1820,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>DHS 108</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1837,12 +1837,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1854,29 +1854,29 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>VLS 804</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1888,12 +1888,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>DHS 108</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1905,29 +1905,29 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
+          <t>AIM 102</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
           <t>DHS 101B-B</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1939,12 +1939,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1956,12 +1956,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>AIM 101</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1973,12 +1973,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -1990,12 +1990,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>DHS 101B-A</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2007,12 +2007,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DAS 101-A</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2024,12 +2024,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>AIM 101</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>EGC 123-A</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2041,12 +2041,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2058,12 +2058,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>DHS 108</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2075,12 +2075,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>DAS 101-A</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2092,12 +2092,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>AIM 102</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2109,12 +2109,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>AIM 845</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2126,12 +2126,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>DHS 108</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2143,12 +2143,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2160,12 +2160,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>AIM 102</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2177,12 +2177,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DHS 306</t>
+          <t>AIM 845</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2194,12 +2194,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2211,12 +2211,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>AIM 101</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2228,12 +2228,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CSE 102 P-A</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2245,12 +2245,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>AIM 101</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2262,12 +2262,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>AIM 101</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2279,29 +2279,29 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>CSE 102 P-A</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2313,12 +2313,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2335,24 +2335,24 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2364,12 +2364,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2381,12 +2381,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2398,12 +2398,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>AIM 845</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>VLS 804</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2415,12 +2415,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>COM 605</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2432,12 +2432,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>AIM 845</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>VLS 804</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>COM 605</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2466,12 +2466,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2483,12 +2483,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>AIM 101</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2500,12 +2500,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2517,12 +2517,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>AIM 101</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2534,12 +2534,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2551,12 +2551,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>AIM 101</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CSE 606</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>DHS 108</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2602,12 +2602,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>DHS 108</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2619,12 +2619,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2636,12 +2636,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2653,12 +2653,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>CSE 606</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2670,12 +2670,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2687,12 +2687,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2704,46 +2704,46 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>DHS 306</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2755,12 +2755,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>DAS 101P-A</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2789,12 +2789,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>DAS 101P-A</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2952,19 +2952,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>CSE 102-A</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2976,12 +2976,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -2993,12 +2993,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3010,12 +3010,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3027,12 +3027,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3044,12 +3044,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3061,12 +3061,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>CSE 104-A</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>DHS 101B-A</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3078,12 +3078,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3265,12 +3265,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>CSE 104-A</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>DHS 201-A</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3282,12 +3282,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ECE 303</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3299,12 +3299,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>DAS 101P-A</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3316,12 +3316,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
+          <t>CSE 212</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
           <t>DAS 101P-A</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>DHS 110</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3333,12 +3333,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>DAS 101P-A</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3350,12 +3350,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3367,12 +3367,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>DAS 101-A</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3384,12 +3384,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>EGC 123-A</t>
+          <t>DAS 101-A</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3503,12 +3503,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>CSE 102-A</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3520,12 +3520,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>CSE 102-A</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3537,12 +3537,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -3554,12 +3554,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>DHS 201-A</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3571,12 +3571,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3588,12 +3588,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -3605,12 +3605,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -3622,17 +3622,17 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>AIM 821</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3656,7 +3656,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -3673,12 +3673,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3707,12 +3707,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -3724,12 +3724,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -3741,12 +3741,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>CSE 102-A</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>CSE 102 P-A</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>CSE 102 P-A</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -3826,7 +3826,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4013,12 +4013,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>DHS 201-A</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>EGC 123-A</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -4030,12 +4030,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -4047,46 +4047,46 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>AIM 102</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>AIM 102</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>AIM 102</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -4200,12 +4200,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>DHS 101B-A</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>EGC 121-A</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -4217,12 +4217,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>CSE 102 P-A</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4336,12 +4336,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>COM 605</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>EGC 121-A</t>
+          <t>VLS 603</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -4353,12 +4353,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>COM 605</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>VLS 603</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -4387,7 +4387,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>AIM 102</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -4499,14 +4499,14 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>DHS 201-A</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -4727,12 +4727,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>DHS 101B-A</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>DHS 201-A</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -4744,12 +4744,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>CSE 102 P-A</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>DHS 101B-A</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -4761,12 +4761,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -4778,29 +4778,29 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>AIM 101</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -4812,29 +4812,29 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>EGC 121-A</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>DHS 108</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -4846,12 +4846,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>DHS 108</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -4863,12 +4863,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>VLS 603</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>VLS 804</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -4880,12 +4880,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>VLS 603</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>VLS 804</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -4897,12 +4897,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>DHS 306</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -4914,12 +4914,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>AIM 101</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -4931,12 +4931,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>CSE 102 P-A</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>DHS 201-A</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -4948,12 +4948,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>AIM 101</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -4965,12 +4965,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>DHS 306</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -4982,12 +4982,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>DAS 101P-A</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -4999,12 +4999,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -5016,12 +5016,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>DAS 101P-A</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -5033,12 +5033,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -5050,12 +5050,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
+          <t>CSE 704</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
           <t>CSE 816</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>CSE 824</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5067,12 +5067,12 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5084,12 +5084,12 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -5101,12 +5101,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>VLS 603</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>ECE 303</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5152,29 +5152,29 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>AIM 101</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>VLS 603</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -5186,12 +5186,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>AIM 101</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -5203,12 +5203,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -5220,12 +5220,12 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>CSE 104-A</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -5237,12 +5237,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>DHS 611</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -5271,12 +5271,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>CSE 104-A</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -5288,12 +5288,12 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -5305,12 +5305,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>DHS 306</t>
+          <t>DHS 611</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -5322,12 +5322,12 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>CSE 606</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -5339,12 +5339,12 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
+          <t>DHS 305</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
           <t>DHS 306</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>DHS 308</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -5356,29 +5356,29 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>DHS 108</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>DAS 101-A</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -5390,29 +5390,29 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>DHS 108</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -5424,12 +5424,12 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>DAS 101-A</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -5441,12 +5441,12 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>CSE 104-A</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -5458,12 +5458,12 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -5480,7 +5480,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -5492,12 +5492,12 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>ECE 303</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -5509,29 +5509,29 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -5543,12 +5543,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -5560,12 +5560,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -5577,12 +5577,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>AIM 845</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -5594,12 +5594,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>AIM 845</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -5611,12 +5611,12 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
+          <t>AIM 846</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
           <t>CSE 816</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>DHS 308</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -5628,12 +5628,12 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -5645,12 +5645,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -5662,29 +5662,29 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -5696,12 +5696,12 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -5713,12 +5713,12 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -5730,12 +5730,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>CSE 104-A</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>EGC 123-A</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -5747,12 +5747,12 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>CSE 104-A</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>EGC 123-A</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -5764,12 +5764,12 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -5781,7 +5781,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -5798,12 +5798,12 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>CSE 606</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -5815,12 +5815,12 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -5832,12 +5832,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>DAS 101P-A</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -5849,12 +5849,12 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>AIM 101</t>
+          <t>DAS 101P-A</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>AIM 102</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -5866,12 +5866,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>AIM 101</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>AIM 102</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -5927,7 +5927,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -6154,7 +6154,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -6162,12 +6162,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6197,7 +6197,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -6205,12 +6205,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -6240,7 +6240,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -6248,12 +6248,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -6283,7 +6283,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -6291,12 +6291,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -6326,7 +6326,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -6334,12 +6334,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -6369,7 +6369,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -6377,12 +6377,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -6420,12 +6420,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -6498,7 +6498,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -6506,12 +6506,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -6592,12 +6592,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -6635,12 +6635,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -6678,12 +6678,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -6721,12 +6721,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -6764,12 +6764,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -6799,7 +6799,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -6850,12 +6850,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -6893,12 +6893,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -6928,7 +6928,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -6936,12 +6936,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -6979,12 +6979,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -7014,7 +7014,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -7022,12 +7022,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -7057,7 +7057,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -7065,12 +7065,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -7100,7 +7100,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -7143,7 +7143,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -7151,12 +7151,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -7186,7 +7186,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -7194,12 +7194,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -7272,7 +7272,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -7315,7 +7315,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -7323,12 +7323,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -7366,12 +7366,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -7409,12 +7409,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -7444,7 +7444,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -7452,12 +7452,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -7530,7 +7530,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -7538,12 +7538,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -7624,12 +7624,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -7659,7 +7659,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -7710,12 +7710,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -7788,7 +7788,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -7831,7 +7831,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -7839,12 +7839,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -7874,7 +7874,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -7882,12 +7882,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -7917,7 +7917,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -7925,12 +7925,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -7968,12 +7968,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -8003,7 +8003,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -8011,12 +8011,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -8046,7 +8046,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -8054,12 +8054,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -8140,12 +8140,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -8183,12 +8183,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -8218,7 +8218,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -8226,12 +8226,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -8269,12 +8269,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -8286,7 +8286,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>DHS 101B-A</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -8295,7 +8295,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -8312,12 +8312,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -8329,7 +8329,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -8338,7 +8338,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -8355,12 +8355,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -8390,7 +8390,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -8398,12 +8398,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -8415,7 +8415,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -8424,7 +8424,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -8433,7 +8433,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -8458,7 +8458,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>DHS 201-A</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -8467,7 +8467,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -8527,12 +8527,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -8562,7 +8562,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -8605,7 +8605,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -8613,12 +8613,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -8656,12 +8656,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -8744,7 +8744,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>A204</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -8756,10 +8756,10 @@
         <v>59</v>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H2" t="n">
         <v>59</v>
@@ -8778,7 +8778,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -8790,10 +8790,10 @@
         <v>59</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="H3" t="n">
         <v>59</v>
@@ -8812,7 +8812,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>R110</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -8824,10 +8824,10 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="H4" t="n">
         <v>20</v>
@@ -8846,7 +8846,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>R105</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -8858,10 +8858,10 @@
         <v>21</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H5" t="n">
         <v>21</v>
@@ -8898,7 +8898,7 @@
         <v>70</v>
       </c>
       <c r="H6" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -8932,7 +8932,7 @@
         <v>115</v>
       </c>
       <c r="H7" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8">
@@ -8948,7 +8948,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>R401(Amanthran)</t>
+          <t>A204</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -8960,10 +8960,10 @@
         <v>93</v>
       </c>
       <c r="F8" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="H8" t="n">
         <v>93</v>
@@ -8982,7 +8982,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -8994,10 +8994,10 @@
         <v>35</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G9" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="H9" t="n">
         <v>35</v>
@@ -9016,7 +9016,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>Ramanujan Basement 04 (D- Block)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -9028,10 +9028,10 @@
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G10" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H10" t="n">
         <v>7</v>
@@ -9050,7 +9050,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 05 (E- Block)</t>
+          <t>A310</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -9062,10 +9062,10 @@
         <v>26</v>
       </c>
       <c r="F11" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G11" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H11" t="n">
         <v>26</v>
@@ -9084,7 +9084,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>A310</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -9096,7 +9096,7 @@
         <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G12" t="n">
         <v>60</v>
@@ -9118,7 +9118,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>R110</t>
+          <t>R105</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -9130,7 +9130,7 @@
         <v>39</v>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
         <v>70</v>
@@ -9186,7 +9186,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 03 (C- Block)</t>
+          <t>A204</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -9198,10 +9198,10 @@
         <v>75</v>
       </c>
       <c r="F15" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="G15" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H15" t="n">
         <v>75</v>
@@ -9220,7 +9220,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>A307</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -9232,10 +9232,10 @@
         <v>12</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G16" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="H16" t="n">
         <v>12</v>
@@ -9254,7 +9254,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>R203</t>
+          <t>R401(Amanthran)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -9266,10 +9266,10 @@
         <v>134</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G17" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="H17" t="n">
         <v>134</v>
@@ -9288,7 +9288,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A304/A305</t>
+          <t>A303</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -9300,7 +9300,7 @@
         <v>14</v>
       </c>
       <c r="F18" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G18" t="n">
         <v>90</v>
@@ -9322,7 +9322,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>R401(Amanthran)</t>
+          <t>A204</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -9334,10 +9334,10 @@
         <v>115</v>
       </c>
       <c r="F19" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G19" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="H19" t="n">
         <v>115</v>
@@ -9356,7 +9356,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>R110</t>
+          <t>Ramanujan Basement 01 (A- Block)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -9368,10 +9368,10 @@
         <v>41</v>
       </c>
       <c r="F20" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="G20" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H20" t="n">
         <v>41</v>
@@ -9390,7 +9390,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>R105</t>
+          <t>A304/A305</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -9402,10 +9402,10 @@
         <v>25</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G21" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H21" t="n">
         <v>25</v>
@@ -9424,7 +9424,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -9436,10 +9436,10 @@
         <v>146</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="H22" t="n">
         <v>146</v>
@@ -9458,7 +9458,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>R203</t>
+          <t>A106</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -9470,10 +9470,10 @@
         <v>155</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G23" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="H23" t="n">
         <v>155</v>
@@ -9560,7 +9560,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 01 (A- Block)</t>
+          <t>A304/A305</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -9572,10 +9572,10 @@
         <v>72</v>
       </c>
       <c r="F26" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H26" t="n">
         <v>72</v>
@@ -9594,7 +9594,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>R105</t>
+          <t>A310</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -9606,10 +9606,10 @@
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G27" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H27" t="n">
         <v>7</v>
@@ -9628,7 +9628,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A106</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -9640,10 +9640,10 @@
         <v>193</v>
       </c>
       <c r="F28" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H28" t="n">
         <v>193</v>
@@ -9662,7 +9662,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>Ramanujan Basement 03 (C- Block)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -9674,10 +9674,10 @@
         <v>36</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="G29" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H29" t="n">
         <v>36</v>
@@ -9696,7 +9696,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>R203</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -9708,10 +9708,10 @@
         <v>34</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="H30" t="n">
         <v>34</v>
@@ -9730,7 +9730,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A304/A305</t>
+          <t>A307</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -9742,10 +9742,10 @@
         <v>40</v>
       </c>
       <c r="F31" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G31" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H31" t="n">
         <v>40</v>
@@ -9764,7 +9764,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>Ramanujan Basement 01 (A- Block)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -9776,10 +9776,10 @@
         <v>25</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G32" t="n">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="H32" t="n">
         <v>25</v>
@@ -9798,7 +9798,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>R203</t>
+          <t>Ramanujan Basement 02 (B- Block)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -9810,10 +9810,10 @@
         <v>78</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G33" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="H33" t="n">
         <v>78</v>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -9844,7 +9844,7 @@
         <v>12</v>
       </c>
       <c r="F34" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
         <v>60</v>
@@ -9866,7 +9866,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>A303</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -9878,10 +9878,10 @@
         <v>61</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G35" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="H35" t="n">
         <v>61</v>
@@ -9934,7 +9934,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 02 (B- Block)</t>
+          <t>Ramanujan Basement 05 (E- Block)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -9946,7 +9946,7 @@
         <v>61</v>
       </c>
       <c r="F37" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G37" t="n">
         <v>80</v>
@@ -10002,7 +10002,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 03 (C- Block)</t>
+          <t>Ramanujan Basement 01 (A- Block)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -10014,7 +10014,7 @@
         <v>61</v>
       </c>
       <c r="F39" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G39" t="n">
         <v>80</v>
@@ -10036,7 +10036,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>A106</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -10048,10 +10048,10 @@
         <v>193</v>
       </c>
       <c r="F40" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H40" t="n">
         <v>193</v>
@@ -10070,7 +10070,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>A307</t>
+          <t>Ramanujan Basement 01 (A- Block)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -10082,10 +10082,10 @@
         <v>33</v>
       </c>
       <c r="F41" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G41" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="H41" t="n">
         <v>33</v>
@@ -10104,7 +10104,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 04 (D- Block)</t>
+          <t>A307</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -10116,10 +10116,10 @@
         <v>31</v>
       </c>
       <c r="F42" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G42" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="H42" t="n">
         <v>31</v>
@@ -10138,7 +10138,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>A106</t>
+          <t>R401(Amanthran)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -10150,10 +10150,10 @@
         <v>159</v>
       </c>
       <c r="F43" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G43" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="H43" t="n">
         <v>159</v>
@@ -10206,7 +10206,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>R401(Amanthran)</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -10218,10 +10218,10 @@
         <v>158</v>
       </c>
       <c r="F45" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="H45" t="n">
         <v>158</v>
@@ -10274,7 +10274,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>R203</t>
+          <t>A106</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -10286,10 +10286,10 @@
         <v>158</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G47" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="H47" t="n">
         <v>158</v>
@@ -10308,7 +10308,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>A106</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -10320,10 +10320,10 @@
         <v>123</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G48" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="H48" t="n">
         <v>123</v>
@@ -10342,7 +10342,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>A307</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -10354,10 +10354,10 @@
         <v>95</v>
       </c>
       <c r="F49" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="H49" t="n">
         <v>95</v>
@@ -10376,7 +10376,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>R203</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -10388,10 +10388,10 @@
         <v>96</v>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="H50" t="n">
         <v>96</v>
@@ -10468,7 +10468,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>DHS 101B-A</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="F53" t="n">
         <v>4</v>
@@ -10496,13 +10496,13 @@
         <v>70</v>
       </c>
       <c r="H53" t="n">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>DHS 101B-A</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="F54" t="n">
         <v>5</v>
@@ -10530,13 +10530,13 @@
         <v>115</v>
       </c>
       <c r="H54" t="n">
-        <v>115</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -10555,7 +10555,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="F55" t="n">
         <v>4</v>
@@ -10564,13 +10564,13 @@
         <v>70</v>
       </c>
       <c r="H55" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -10589,7 +10589,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="F56" t="n">
         <v>5</v>
@@ -10614,7 +10614,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -10626,10 +10626,10 @@
         <v>158</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="H57" t="n">
         <v>158</v>
@@ -10638,7 +10638,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>R401(Amanthran)</t>
+          <t>A106</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -10657,22 +10657,22 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="F58" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G58" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H58" t="n">
-        <v>158</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>DHS 201-A</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -10682,7 +10682,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -10691,16 +10691,16 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="H59" t="n">
-        <v>123</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60">
@@ -10716,7 +10716,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>R203</t>
+          <t>A106</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -10728,10 +10728,10 @@
         <v>127</v>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G60" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="H60" t="n">
         <v>127</v>
@@ -10818,7 +10818,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R401(Amanthran)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -10830,10 +10830,10 @@
         <v>95</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G63" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="H63" t="n">
         <v>95</v>

--- a/timetable_report.xlsx
+++ b/timetable_report.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Clash Report" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Exam Slot report" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Seating Report" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Clash Report" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Exam Slot report" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Seating Report" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -528,12 +528,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -545,29 +545,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>CSE 102-A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>DHS 101B-A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CSE 102-A</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -579,12 +579,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -596,12 +596,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -613,29 +613,29 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>CSE 104-A</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ECE 303</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CSE 104-A</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -647,29 +647,29 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CSE 606</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>AIM 845</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -681,29 +681,29 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AIM 845</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>DAS 101P-A</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>CSE 102-A</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DAS 101P-A</t>
+          <t>DHS 201-A</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -834,12 +834,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CSE 102-A</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -851,12 +851,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>CSE 102-A</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -868,12 +868,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -885,12 +885,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -902,12 +902,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -936,12 +936,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>AIM 102</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -953,12 +953,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -970,12 +970,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>DHS 101B-A</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -987,12 +987,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CSE 102-A</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CSE 104-A</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1004,12 +1004,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>CSE 102-A</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>CSE 104-A</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1021,12 +1021,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>DHS 201-A</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>EGC 121-A</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1038,12 +1038,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1055,12 +1055,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>AIM 821</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1072,12 +1072,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1089,12 +1089,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>AIM 102</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1106,12 +1106,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>AIM 102</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1123,12 +1123,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1140,7 +1140,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1157,12 +1157,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ECE 303</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1191,12 +1191,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1208,12 +1208,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1344,29 +1344,29 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>AIM 102</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1378,12 +1378,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>AIM 102</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
           <t>CSE 102 P-B</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1395,29 +1395,29 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>DAS 101-A</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1429,7 +1429,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>DAS 101-A</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1446,29 +1446,29 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DHS 611</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>DHS 611</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1480,12 +1480,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DAS 101-A</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1497,12 +1497,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>DAS 101-A</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1514,12 +1514,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CSE 102 P-A</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CSE 104-A</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1531,29 +1531,29 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>CSE 102 P-A</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>EGC 123-A</t>
+          <t>CSE 104-A</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CSE 102 P-A</t>
+          <t>DHS 101B-A</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>EGC 123-A</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1667,12 +1667,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1701,12 +1701,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
+          <t>AIM 832</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
           <t>CSE 718</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>CSE 816</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1735,29 +1735,29 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CSE 102 P-A</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>EGC 123-A</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1769,12 +1769,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>AIM 101</t>
+          <t>CSE 102 P-A</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>EGC 123-A</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1786,29 +1786,29 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>AIM 101</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ECE 303</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1837,12 +1837,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>VLS 804</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1871,12 +1871,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>DHS 108</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>VLS 804</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1888,29 +1888,29 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>DHS 108</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>AIM 102</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1922,12 +1922,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>AIM 102</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1939,12 +1939,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1956,12 +1956,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1973,29 +1973,29 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>DHS 101B-A</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2007,12 +2007,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>AIM 101</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2024,7 +2024,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>AIM 101</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2041,12 +2041,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DAS 101-A</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2075,12 +2075,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>EGC 123-A</t>
+          <t>DAS 101-A</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2092,12 +2092,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2109,29 +2109,29 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>DHS 108</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>DHS 108</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2143,12 +2143,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>AIM 102</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2160,12 +2160,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>AIM 102</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>AIM 845</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2177,12 +2177,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>AIM 845</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2585,17 +2585,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>AIM 101</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CSE 606</t>
+          <t>DHS 108</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2619,12 +2619,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>DHS 108</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2636,12 +2636,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2653,12 +2653,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2670,12 +2670,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2687,12 +2687,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>CSE 606</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2704,12 +2704,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -2721,12 +2721,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2738,12 +2738,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2755,12 +2755,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>DHS 306</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2772,12 +2772,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>DAS 101P-A</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2806,12 +2806,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>DAS 101P-A</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2823,12 +2823,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -2840,12 +2840,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>CSE 104-A</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>EGC 121-A</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2857,12 +2857,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>CSE 104-A</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>EGC 121-A</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2874,12 +2874,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -2891,12 +2891,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>AIM 845</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2908,7 +2908,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>AIM 845</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2925,29 +2925,29 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2976,12 +2976,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>CSE 102-A</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -2993,12 +2993,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3010,17 +3010,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3044,12 +3044,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3061,12 +3061,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>CSE 104-A</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>DHS 101B-A</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3078,12 +3078,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3095,12 +3095,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3112,12 +3112,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>CSE 104-A</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3129,12 +3129,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>AIM 845</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3146,12 +3146,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3163,12 +3163,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>CSE 606</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3180,12 +3180,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>AIM 845</t>
+          <t>CSE 102-A</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>CSE 606</t>
+          <t>EGC 123-A</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3197,12 +3197,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3214,12 +3214,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3231,12 +3231,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>CSE 102-A</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>EGC 123-A</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3248,12 +3248,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3265,12 +3265,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>CSE 104-A</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ECE 303</t>
+          <t>DHS 201-A</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3282,12 +3282,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3299,12 +3299,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3316,12 +3316,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>DAS 101P-A</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3333,12 +3333,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ECE 303</t>
+          <t>DAS 101P-A</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3350,12 +3350,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>DAS 101P-A</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3367,12 +3367,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>DAS 101P-A</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3384,12 +3384,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>DAS 101-A</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3401,12 +3401,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3418,12 +3418,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>DAS 101-A</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3435,29 +3435,29 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>AIM 821</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>AIM 845</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3469,12 +3469,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>CSE 606</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3486,12 +3486,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>AIM 845</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>VLS 603</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -3503,12 +3503,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3520,12 +3520,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>CSE 102-A</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>VLS 603</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3537,12 +3537,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -3554,12 +3554,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>CSE 102-A</t>
+          <t>DHS 201-A</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3571,29 +3571,29 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -3605,12 +3605,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -3622,29 +3622,29 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3656,29 +3656,29 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>AIM 821</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3690,29 +3690,29 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>AIM 821</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -3724,12 +3724,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -3741,12 +3741,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3758,12 +3758,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>CSE 102-A</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>CSE 102 P-A</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3775,7 +3775,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -3792,12 +3792,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>CSE 102-A</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>CSE 102 P-A</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -3809,12 +3809,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3826,12 +3826,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -3843,12 +3843,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ECE 303</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -3860,29 +3860,29 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>AIM 821</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -3894,12 +3894,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -3911,12 +3911,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -3928,12 +3928,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>DAS 101-A</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>DAS 101P-A</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3945,12 +3945,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>DHS 306</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -3962,12 +3962,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>DAS 101-A</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>DAS 101P-A</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -3979,12 +3979,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -3996,12 +3996,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4013,12 +4013,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>DHS 201-A</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>EGC 123-A</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -4030,12 +4030,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -4047,12 +4047,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4064,12 +4064,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>AIM 102</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4081,12 +4081,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>AIM 102</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -4098,12 +4098,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4115,12 +4115,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4132,12 +4132,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4149,29 +4149,29 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>DHS 611</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>DHS 611</t>
+          <t>VLS 603</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4183,12 +4183,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>VLS 603</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4200,12 +4200,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>DHS 101B-A</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>EGC 121-A</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -4217,12 +4217,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>EGC 121-A</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4234,12 +4234,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4251,12 +4251,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -4268,12 +4268,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4285,12 +4285,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4302,12 +4302,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4319,12 +4319,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>COM 605</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>VLS 603</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -4353,12 +4353,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>COM 605</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>VLS 603</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -4370,29 +4370,29 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>AIM 102</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>AIM 102</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -4404,12 +4404,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>AIM 102</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -4421,12 +4421,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -4438,12 +4438,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>CSE 102 P-A</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>EGC 121-A</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -4455,12 +4455,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>CSE 102 P-A</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>EGC 121-A</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4472,12 +4472,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>DHS 306</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -4489,29 +4489,29 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>DHS 201-A</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -4523,12 +4523,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -4540,12 +4540,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -4557,12 +4557,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -4574,12 +4574,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -4591,12 +4591,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -4608,12 +4608,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>DAS 101-A</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -4625,12 +4625,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>DAS 101-A</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -4642,12 +4642,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -4659,7 +4659,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -4676,12 +4676,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -4693,12 +4693,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -4710,12 +4710,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>VLS 804</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -4727,12 +4727,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>DHS 101B-A</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>VLS 804</t>
+          <t>DHS 201-A</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -4778,12 +4778,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>AIM 101</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -4795,46 +4795,46 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
+          <t>AIM 704</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
           <t>AIM 831</t>
         </is>
       </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>DAS 839</t>
-        </is>
-      </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>EGC 121-A</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -4931,12 +4931,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>AIM 101</t>
+          <t>CSE 102 P-A</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>DHS 201-A</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -4948,7 +4948,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>AIM 101</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -4965,12 +4965,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>DHS 306</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -4999,12 +4999,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>DAS 101P-A</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -5016,12 +5016,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>DAS 101P-A</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -5033,12 +5033,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -5050,29 +5050,29 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5084,7 +5084,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -5094,7 +5094,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5106,24 +5106,24 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5135,12 +5135,12 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>VLS 603</t>
+          <t>DHS 110</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5152,12 +5152,12 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>ECE 303</t>
+          <t>VLS 603</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -5169,12 +5169,12 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>AIM 101</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -5186,12 +5186,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>AIM 101</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -5220,12 +5220,12 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -5237,12 +5237,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>CSE 104-A</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -5254,12 +5254,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -5271,12 +5271,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>CSE 104-A</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>DHS 611</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -5288,12 +5288,12 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -5305,12 +5305,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>DHS 306</t>
+          <t>DHS 611</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -5322,29 +5322,29 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>CSE 606</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -5356,12 +5356,12 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>DHS 306</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>DHS 101B-B</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -5373,12 +5373,12 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>DHS 108</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -5390,12 +5390,12 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>DAS 101-A</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -5407,29 +5407,29 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>DHS 108</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>DAS 101-A</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -5441,12 +5441,12 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -5458,12 +5458,12 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>CSE 104-A</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -5475,12 +5475,12 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -5492,12 +5492,12 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -5509,12 +5509,12 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ECE 303</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -5526,12 +5526,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -5543,12 +5543,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -6162,12 +6162,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6197,7 +6197,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -6205,12 +6205,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -6248,12 +6248,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -6291,12 +6291,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -6326,7 +6326,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -6334,12 +6334,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -6369,7 +6369,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -6377,12 +6377,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -6420,12 +6420,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -6455,7 +6455,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -6463,12 +6463,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -6498,7 +6498,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -6506,12 +6506,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -6549,12 +6549,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -6584,7 +6584,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -6592,12 +6592,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -6635,12 +6635,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -6670,7 +6670,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -6678,12 +6678,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -6721,12 +6721,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -6764,17 +6764,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -6807,12 +6807,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -6850,12 +6850,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -6893,12 +6893,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -6928,7 +6928,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -6936,12 +6936,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -6971,7 +6971,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -7014,7 +7014,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -7022,12 +7022,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -7057,7 +7057,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -7065,12 +7065,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -7108,12 +7108,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -7143,7 +7143,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -7151,12 +7151,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -7194,12 +7194,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -7229,7 +7229,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -7237,17 +7237,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -7272,7 +7272,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -7280,12 +7280,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -7323,12 +7323,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -7366,12 +7366,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -7409,12 +7409,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -7452,12 +7452,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -7495,12 +7495,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -7530,7 +7530,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -7538,12 +7538,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -7581,12 +7581,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -7624,12 +7624,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -7659,7 +7659,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -7667,12 +7667,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -7702,7 +7702,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -7710,12 +7710,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -7753,17 +7753,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -7831,7 +7831,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -7839,12 +7839,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -7874,7 +7874,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -7882,12 +7882,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -7917,7 +7917,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -7925,12 +7925,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -8003,7 +8003,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -8011,12 +8011,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -8054,12 +8054,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -8097,12 +8097,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -8132,7 +8132,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -8140,12 +8140,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -8183,12 +8183,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -8226,12 +8226,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -8312,12 +8312,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -8355,12 +8355,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -8390,7 +8390,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -8415,7 +8415,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -8424,7 +8424,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -8433,7 +8433,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -8441,12 +8441,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -8458,7 +8458,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>DHS 201-A</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -8467,7 +8467,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -8484,12 +8484,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -8527,12 +8527,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -8570,12 +8570,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -8605,7 +8605,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -8613,12 +8613,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -8744,7 +8744,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -8756,7 +8756,7 @@
         <v>59</v>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>60</v>
@@ -8778,7 +8778,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A303</t>
+          <t>A307</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -8790,10 +8790,10 @@
         <v>59</v>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H3" t="n">
         <v>59</v>
@@ -8812,7 +8812,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>A308</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -8824,10 +8824,10 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
         <v>20</v>
@@ -8846,7 +8846,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A307</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -8858,10 +8858,10 @@
         <v>21</v>
       </c>
       <c r="F5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="H5" t="n">
         <v>21</v>
@@ -8982,7 +8982,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A310</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -8994,10 +8994,10 @@
         <v>35</v>
       </c>
       <c r="F9" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="H9" t="n">
         <v>35</v>
@@ -9016,7 +9016,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>R105</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -9028,10 +9028,10 @@
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H10" t="n">
         <v>7</v>
@@ -9050,7 +9050,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>Ramanujan Basement 05 (E- Block)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -9062,10 +9062,10 @@
         <v>26</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="G11" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H11" t="n">
         <v>26</v>
@@ -9084,7 +9084,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 01 (A- Block)</t>
+          <t>R110</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -9096,10 +9096,10 @@
         <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -9118,7 +9118,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A106</t>
+          <t>Ramanujan Basement 02 (B- Block)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -9130,10 +9130,10 @@
         <v>39</v>
       </c>
       <c r="F13" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G13" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="H13" t="n">
         <v>39</v>
@@ -9152,7 +9152,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A204</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -9164,10 +9164,10 @@
         <v>79</v>
       </c>
       <c r="F14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="H14" t="n">
         <v>79</v>
@@ -9186,7 +9186,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 05 (E- Block)</t>
+          <t>R401(Amanthran)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -9198,10 +9198,10 @@
         <v>75</v>
       </c>
       <c r="F15" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G15" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="H15" t="n">
         <v>75</v>
@@ -9220,7 +9220,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -9232,7 +9232,7 @@
         <v>12</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G16" t="n">
         <v>60</v>
@@ -9254,7 +9254,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>R203</t>
+          <t>A106</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -9266,10 +9266,10 @@
         <v>134</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G17" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="H17" t="n">
         <v>134</v>
@@ -9288,7 +9288,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -9300,7 +9300,7 @@
         <v>14</v>
       </c>
       <c r="F18" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
         <v>60</v>
@@ -9322,7 +9322,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -9334,10 +9334,10 @@
         <v>115</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="H19" t="n">
         <v>115</v>
@@ -9356,7 +9356,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R105</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -9368,10 +9368,10 @@
         <v>41</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="H20" t="n">
         <v>41</v>
@@ -9390,7 +9390,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 02 (B- Block)</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -9402,10 +9402,10 @@
         <v>25</v>
       </c>
       <c r="F21" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H21" t="n">
         <v>25</v>
@@ -9424,7 +9424,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>R401(Amanthran)</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -9436,10 +9436,10 @@
         <v>146</v>
       </c>
       <c r="F22" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="H22" t="n">
         <v>146</v>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>Ramanujan Basement 01 (A- Block)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -9504,10 +9504,10 @@
         <v>14</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="G24" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H24" t="n">
         <v>14</v>
@@ -9526,7 +9526,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A304/A305</t>
+          <t>A310</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -9538,10 +9538,10 @@
         <v>53</v>
       </c>
       <c r="F25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G25" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H25" t="n">
         <v>53</v>
@@ -9560,7 +9560,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 05 (E- Block)</t>
+          <t>A303</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -9572,10 +9572,10 @@
         <v>72</v>
       </c>
       <c r="F26" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G26" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H26" t="n">
         <v>72</v>
@@ -9628,7 +9628,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A106</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -9640,10 +9640,10 @@
         <v>193</v>
       </c>
       <c r="F28" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H28" t="n">
         <v>193</v>
@@ -9662,7 +9662,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A303</t>
+          <t>Ramanujan Basement 02 (B- Block)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -9674,10 +9674,10 @@
         <v>36</v>
       </c>
       <c r="F29" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G29" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H29" t="n">
         <v>36</v>
@@ -9696,7 +9696,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 03 (C- Block)</t>
+          <t>R105</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -9708,10 +9708,10 @@
         <v>34</v>
       </c>
       <c r="F30" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H30" t="n">
         <v>34</v>
@@ -9764,7 +9764,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>A106</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -9776,10 +9776,10 @@
         <v>25</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G32" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="H32" t="n">
         <v>25</v>
@@ -9798,7 +9798,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A304/A305</t>
+          <t>Ramanujan Basement 01 (A- Block)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -9810,10 +9810,10 @@
         <v>78</v>
       </c>
       <c r="F33" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G33" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H33" t="n">
         <v>78</v>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A303</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -9844,10 +9844,10 @@
         <v>12</v>
       </c>
       <c r="F34" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H34" t="n">
         <v>12</v>
@@ -9866,7 +9866,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>Ramanujan Basement 01 (A- Block)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -9878,10 +9878,10 @@
         <v>61</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G35" t="n">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="H35" t="n">
         <v>61</v>
@@ -9934,7 +9934,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>R105</t>
+          <t>Ramanujan Basement 03 (C- Block)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -9946,10 +9946,10 @@
         <v>61</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="G37" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H37" t="n">
         <v>61</v>
@@ -10002,7 +10002,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>A204</t>
+          <t>A304/A305</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -10014,10 +10014,10 @@
         <v>61</v>
       </c>
       <c r="F39" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G39" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H39" t="n">
         <v>61</v>
@@ -10104,7 +10104,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 05 (E- Block)</t>
+          <t>A303</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -10116,10 +10116,10 @@
         <v>31</v>
       </c>
       <c r="F42" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G42" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H42" t="n">
         <v>31</v>
@@ -10206,7 +10206,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>A106</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -10218,10 +10218,10 @@
         <v>158</v>
       </c>
       <c r="F45" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H45" t="n">
         <v>158</v>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>R401(Amanthran)</t>
+          <t>A106</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -10252,10 +10252,10 @@
         <v>123</v>
       </c>
       <c r="F46" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G46" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H46" t="n">
         <v>123</v>
@@ -10274,7 +10274,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>A106</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -10286,10 +10286,10 @@
         <v>158</v>
       </c>
       <c r="F47" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H47" t="n">
         <v>158</v>
@@ -10308,7 +10308,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>R203</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -10320,10 +10320,10 @@
         <v>123</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="H48" t="n">
         <v>123</v>
@@ -10342,7 +10342,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>A106</t>
+          <t>A204</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -10354,10 +10354,10 @@
         <v>95</v>
       </c>
       <c r="F49" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G49" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="H49" t="n">
         <v>95</v>
@@ -10376,7 +10376,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>R203</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -10388,10 +10388,10 @@
         <v>96</v>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="H50" t="n">
         <v>96</v>
@@ -10496,7 +10496,7 @@
         <v>70</v>
       </c>
       <c r="H53" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54">
@@ -10530,7 +10530,7 @@
         <v>115</v>
       </c>
       <c r="H54" t="n">
-        <v>114</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55">
@@ -10564,7 +10564,7 @@
         <v>70</v>
       </c>
       <c r="H55" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56">
@@ -10598,7 +10598,7 @@
         <v>115</v>
       </c>
       <c r="H56" t="n">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57">
@@ -10638,7 +10638,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>DHS 201-B</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -10657,7 +10657,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="F58" t="n">
         <v>13</v>
@@ -10666,13 +10666,13 @@
         <v>200</v>
       </c>
       <c r="H58" t="n">
-        <v>158</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>DHS 201-A</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -10682,7 +10682,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>A106</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -10691,16 +10691,16 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G59" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="H59" t="n">
-        <v>123</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60">
@@ -10750,7 +10750,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>A204</t>
+          <t>R401(Amanthran)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -10762,10 +10762,10 @@
         <v>95</v>
       </c>
       <c r="F61" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G61" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="H61" t="n">
         <v>95</v>

--- a/timetable_report.xlsx
+++ b/timetable_report.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C332"/>
+  <dimension ref="A1:C283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,12 +443,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EGC 121-A</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EGC 123-A</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -477,12 +477,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -494,12 +494,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CSE 606</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -511,12 +511,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CSE 606</t>
+          <t>CSE 102 P-A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>VLS 804</t>
+          <t>EGC 121-A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -528,12 +528,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -545,12 +545,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CSE 102-A</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -562,12 +562,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>AIM 102</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -579,12 +579,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -596,12 +596,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>DAS 101P-A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ECE 303</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -613,12 +613,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CSE 104-A</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -630,12 +630,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CSE 606</t>
+          <t>DAS 101-A</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>DAS 101P-A</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -647,12 +647,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -664,12 +664,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AIM 845</t>
+          <t>CSE 102-A</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>EGC 123-A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -681,12 +681,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DAS 101P-A</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -698,12 +698,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CSE 102-A</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -715,12 +715,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DAS 101P-A</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -732,12 +732,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>DHS 611</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -749,12 +749,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AIM 821</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -766,12 +766,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>DHS 611</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -783,12 +783,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>VLS 804</t>
+          <t>VLS 603</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -800,12 +800,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AIM 845</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -817,12 +817,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>DHS 108</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>VLS 603</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -834,12 +834,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -851,12 +851,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CSE 102-A</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -868,12 +868,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -890,7 +890,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -902,12 +902,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>CSE 102 P-A</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>EGC 123-A</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -919,12 +919,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AIM 821</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -936,12 +936,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AIM 102</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -953,12 +953,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>AIM 102</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -970,12 +970,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>AIM 101</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -987,12 +987,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1004,12 +1004,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CSE 102-A</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CSE 104-A</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1021,12 +1021,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>EGC 121-A</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1038,12 +1038,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1055,12 +1055,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1072,12 +1072,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1089,29 +1089,29 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>AIM 821</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>AIM 102</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1123,12 +1123,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1140,12 +1140,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>DHS 611</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1157,12 +1157,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1174,12 +1174,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1191,12 +1191,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>COM 605</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ECE 303</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1208,12 +1208,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1225,29 +1225,29 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CSE 102 P-A</t>
+          <t>COM 605</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>VLS 603</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1259,12 +1259,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AIM 821</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1293,12 +1293,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>AIM 102</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1310,12 +1310,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DHS 108</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DHS 306</t>
+          <t>DAS 101-A</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1327,12 +1327,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>AIM 821</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1344,12 +1344,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1361,12 +1361,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1378,12 +1378,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>AIM 102</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1395,17 +1395,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1429,12 +1429,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>DAS 101-A</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1446,29 +1446,29 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DHS 611</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1480,12 +1480,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>VLS 804</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1497,12 +1497,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DAS 101-A</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1514,12 +1514,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1531,12 +1531,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CSE 102 P-A</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CSE 104-A</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1548,12 +1548,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>EGC 123-A</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1565,12 +1565,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1582,12 +1582,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>AIM 845</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1599,29 +1599,29 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>AIM 845</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1633,12 +1633,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>DAS 101-A</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1650,12 +1650,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>DAS 101P-A</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1667,12 +1667,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1684,12 +1684,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>AIM 845</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1718,12 +1718,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>VLS 804</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1735,29 +1735,29 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1769,12 +1769,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>CSE 102 P-A</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>EGC 123-A</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1786,29 +1786,29 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>AIM 101</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1820,12 +1820,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1837,12 +1837,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ECE 303</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1854,12 +1854,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1871,12 +1871,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>VLS 804</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1888,12 +1888,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>DHS 108</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1922,12 +1922,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>AIM 102</t>
+          <t>AIM 845</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1939,12 +1939,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1956,12 +1956,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1973,7 +1973,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1983,19 +1983,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2024,12 +2024,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>AIM 101</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2041,12 +2041,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2058,12 +2058,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2075,12 +2075,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DAS 101-A</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2092,12 +2092,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2109,29 +2109,29 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>CSE 102-A</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>CSE 102 P-A</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>DHS 108</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2143,12 +2143,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2160,12 +2160,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>AIM 102</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2177,12 +2177,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>AIM 845</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2194,12 +2194,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2211,12 +2211,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2228,12 +2228,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>DHS 306</t>
+          <t>VLS 804</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2245,12 +2245,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2262,12 +2262,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>AIM 101</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2279,12 +2279,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CSE 102 P-A</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2296,12 +2296,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>DHS 108</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2313,12 +2313,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2330,12 +2330,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2347,12 +2347,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2364,29 +2364,29 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>DAS 101-A</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2398,7 +2398,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2415,12 +2415,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>CSE 104-A</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2432,12 +2432,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>AIM 845</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>VLS 804</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2449,12 +2449,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>COM 605</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2466,12 +2466,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2483,7 +2483,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2500,7 +2500,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2517,12 +2517,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>AIM 101</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>COM 605</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2534,12 +2534,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2551,12 +2551,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2568,12 +2568,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2585,12 +2585,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CSE 606</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2602,12 +2602,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>DHS 108</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2619,12 +2619,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2636,12 +2636,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>DAS 101P-A</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2653,7 +2653,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>AIM 101</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2670,12 +2670,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>CSE 606</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2687,12 +2687,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2704,12 +2704,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -2721,12 +2721,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2738,12 +2738,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>DHS 306</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2755,12 +2755,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2772,12 +2772,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2789,12 +2789,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>DAS 101P-A</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2806,12 +2806,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2823,12 +2823,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>CSE 104-A</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -2840,12 +2840,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>CSE 104-A</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>EGC 121-A</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>DHS 108</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2874,29 +2874,29 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>AIM 845</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2908,12 +2908,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2925,29 +2925,29 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>DHS 108</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -2959,12 +2959,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2976,12 +2976,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>DAS 101-A</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -2993,12 +2993,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3010,12 +3010,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3027,12 +3027,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3044,12 +3044,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3061,12 +3061,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>CSE 104-A</t>
+          <t>AIM 101</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3078,12 +3078,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3095,12 +3095,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3112,12 +3112,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>CSE 606</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3129,12 +3129,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>AIM 845</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>CSE 606</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3146,12 +3146,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3163,12 +3163,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>VLS 804</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3180,12 +3180,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>CSE 102-A</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>EGC 123-A</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3197,12 +3197,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3214,12 +3214,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ECE 303</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3231,12 +3231,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3248,12 +3248,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3265,12 +3265,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>CSE 104-A</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3282,12 +3282,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3299,12 +3299,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ECE 303</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3316,12 +3316,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>DAS 101P-A</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3333,12 +3333,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>DAS 101P-A</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3350,12 +3350,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>CSE 102-A</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3367,12 +3367,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3384,12 +3384,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>DAS 101-A</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3401,12 +3401,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>AIM 821</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3418,12 +3418,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3435,29 +3435,29 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>CSE 606</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>AIM 845</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>DAS 101P-A</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3469,29 +3469,29 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>VLS 603</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -3503,12 +3503,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>AIM 101</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3520,12 +3520,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>CSE 102-A</t>
+          <t>AIM 845</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3537,12 +3537,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -3554,12 +3554,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>CSE 102 P-A</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>EGC 123-B</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3571,29 +3571,29 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>VLS 603</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -3605,7 +3605,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -3622,29 +3622,29 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>CSE 102-A</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>CSE 104-A</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
+          <t>AIM 704</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
           <t>AIM 821</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>CSE 836</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3656,29 +3656,29 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>AIM 821</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3690,12 +3690,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3707,12 +3707,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>CSE 102-A</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -3724,12 +3724,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -3741,12 +3741,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
+          <t>DAS 101-B</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
           <t>DAS 101P-B</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>EGC 301</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3758,12 +3758,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>CSE 102-A</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>CSE 102 P-A</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3775,12 +3775,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>VLS 603</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -3792,12 +3792,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -3809,7 +3809,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -3826,12 +3826,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -3843,12 +3843,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>AIM 821</t>
+          <t>AIM 101</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -3860,29 +3860,29 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>CSE 102 P-A</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>CSE 104-A</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -3894,12 +3894,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>DHS 108</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -3911,12 +3911,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>AIM 845</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>DHS 306</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -3928,12 +3928,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>DAS 101-A</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>DAS 101P-A</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3945,12 +3945,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -3962,12 +3962,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -3979,12 +3979,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>CSE 104-A</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>EGC 121-A</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -3996,12 +3996,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4013,12 +4013,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>AIM 845</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>EGC 123-A</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>DAS 101-A</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -4047,12 +4047,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>CSE 102 P-A</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4064,12 +4064,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>AIM 102</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4081,12 +4081,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>AIM 845</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>VLS 804</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -4098,12 +4098,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>CSE 102-A</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>EGC 121-A</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4115,12 +4115,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4132,12 +4132,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
+          <t>AIM 704</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
           <t>AIM 832</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>DHS 314</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4149,12 +4149,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>DHS 611</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4166,12 +4166,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>VLS 603</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4183,12 +4183,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4200,12 +4200,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>EGC 121-A</t>
+          <t>DAS 101-A</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -4217,12 +4217,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4234,12 +4234,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4251,12 +4251,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -4268,12 +4268,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4285,12 +4285,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4302,12 +4302,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4319,12 +4319,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>COM 605</t>
+          <t>DHS 108</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -4336,12 +4336,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>COM 605</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>VLS 603</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -4370,29 +4370,29 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>AIM 102</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -4404,12 +4404,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -4421,12 +4421,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>CSE 104-A</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>EGC 123-A</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -4438,12 +4438,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>CSE 102 P-A</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>EGC 121-A</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -4455,12 +4455,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>AIM 102</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>DHS 306</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4472,12 +4472,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>DAS 101P-A</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -4489,29 +4489,29 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>AIM 101</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>AIM 102</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -4528,24 +4528,24 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -4557,12 +4557,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>AIM 845</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -4574,12 +4574,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -4591,12 +4591,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -4608,12 +4608,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>DAS 101-A</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -4625,12 +4625,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -4642,12 +4642,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -4659,12 +4659,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>VLS 603</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>VLS 804</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -4693,12 +4693,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -4710,12 +4710,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>VLS 804</t>
+          <t>DAS 101P-A</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -4727,12 +4727,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -4744,12 +4744,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>CSE 102 P-A</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -4761,12 +4761,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -4778,12 +4778,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>AIM 101</t>
+          <t>AIM 845</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -4795,12 +4795,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -4812,29 +4812,29 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -4846,12 +4846,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>DHS 108</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -4863,12 +4863,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -4880,12 +4880,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>VLS 603</t>
+          <t>AIM 102</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>VLS 804</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -4897,12 +4897,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -4914,12 +4914,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>DHS 306</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -4931,12 +4931,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>CSE 102 P-A</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -4948,12 +4948,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>AIM 101</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -4965,12 +4965,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -4982,12 +4982,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -4999,12 +4999,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>DHS 306</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -5016,29 +5016,29 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>DAS 101P-A</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -5050,12 +5050,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5067,29 +5067,29 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -5101,29 +5101,29 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5135,24 +5135,24 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -5169,12 +5169,12 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>EGC 121-A</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>ECE 303</t>
+          <t>EGC 123-A</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -5186,12 +5186,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>AIM 101</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -5203,12 +5203,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -5220,848 +5220,15 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>DHS 201-B</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>CSE 824</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>DHS 315</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>AIM 831</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>DAS 605</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>CSE 104-A</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>EGC 123-B</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>AMS 404</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>ECE 303P</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>AIM 831</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>DHS 611</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>CSE 704</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>DAS 839</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>DHS 305</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>DHS 306</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>DAS 101-B</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>DHS 101B-B</t>
-        </is>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>AIM 846</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>CSE 606</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>DHS 306</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>DHS 308</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>CSE 816</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>DHS 108</t>
-        </is>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>AMS 403</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>DAS 101-A</t>
-        </is>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>CSE 102-B</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>DAS 101P-B</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>AIM 831</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>AIM 846</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>AIM 831</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>CSE 718</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>DAS 839</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>DHS 315</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>AIM 831</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>DHS 305</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>ECE 303</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>ECE 304</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>DHS 201-B</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>EGC 123-B</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>CSE 212</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>DAS 101P-B</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>DAS 101-B</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>EGC 301</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>AIM 845</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>CSE 754</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>AIM 846</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>CSE 816</t>
-        </is>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>CSE 816</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>DHS 308</t>
-        </is>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>AMS 403</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>ECE 212P</t>
-        </is>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>CSE 102-B</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>CSE 102 P-B</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>AMS 404</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>CSE 704</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>AIM 831</t>
-        </is>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>AMS 404</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>AMS 402</t>
-        </is>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>DAS 101-B</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>AIM 831</t>
-        </is>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>CSE 836</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>CSE 104-A</t>
-        </is>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>EGC 123-A</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>DAS 605</t>
-        </is>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>DHS 314</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>EGC 121-B</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>EGC 123-B</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>CSE 104-B</t>
-        </is>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>EGC 123-B</t>
-        </is>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>CSE 606</t>
-        </is>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>CSE 718</t>
-        </is>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>CSE 754</t>
-        </is>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>DAS 605</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>DAS 101P-A</t>
-        </is>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>EGC 301</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>AIM 101</t>
-        </is>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>AIM 102</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>AIM 846</t>
-        </is>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>DAS 839</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>CSE 816</t>
-        </is>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>DAS 839</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>CSE 102-A</t>
-        </is>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>EGC 121-A</t>
-        </is>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>ECE 212P</t>
-        </is>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>ECE 303</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>CSE 102-B</t>
-        </is>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>EGC 121-B</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>AIM 831</t>
-        </is>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>CSE 704</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>AIM 821</t>
-        </is>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>CSE 824</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>CSE 212</t>
-        </is>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>CSE 824</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>ECE 303</t>
-        </is>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>ECE 303P</t>
-        </is>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>AIM 821</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>DHS 314</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>CSE 212</t>
-        </is>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>DAS 101-A</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr">
         <is>
           <t>False</t>
         </is>
@@ -6078,7 +5245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6162,12 +5329,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6197,7 +5364,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -6205,12 +5372,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -6240,7 +5407,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -6248,12 +5415,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -6283,7 +5450,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -6291,12 +5458,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -6326,7 +5493,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -6334,12 +5501,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -6369,7 +5536,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -6377,12 +5544,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -6412,7 +5579,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -6420,12 +5587,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -6455,7 +5622,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -6463,12 +5630,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -6498,7 +5665,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -6506,12 +5673,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -6541,7 +5708,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -6549,12 +5716,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -6584,7 +5751,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -6592,12 +5759,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -6627,7 +5794,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -6635,12 +5802,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -6670,7 +5837,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -6678,12 +5845,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -6708,12 +5875,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -6756,7 +5923,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -6764,17 +5931,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -6799,7 +5966,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -6807,12 +5974,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -6842,7 +6009,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -6850,12 +6017,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -6893,12 +6060,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -6928,7 +6095,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -6936,12 +6103,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -6971,7 +6138,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -6979,12 +6146,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -7022,12 +6189,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -7057,7 +6224,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -7065,12 +6232,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -7100,7 +6267,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -7108,12 +6275,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -7143,7 +6310,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -7151,12 +6318,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -7186,7 +6353,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -7194,12 +6361,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -7211,16 +6378,16 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Social Pathways to IT</t>
+          <t>Innovation and Design Thinking</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>193</v>
+        <v>36</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -7229,7 +6396,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -7237,33 +6404,33 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Innovation and Design Thinking</t>
+          <t>Software Architecture for Digital Products</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -7272,7 +6439,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -7280,12 +6447,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -7297,16 +6464,16 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DHS 306</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Software Architecture for Digital Products</t>
+          <t>User Experience</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -7315,20 +6482,20 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -7340,16 +6507,16 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>User Experience</t>
+          <t>An Introduction to Accessibility in the Global South</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -7362,16 +6529,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -7383,16 +6550,16 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>An Introduction to Accessibility in the Global South</t>
+          <t>Technology, Regulation and Law</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -7401,7 +6568,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -7409,12 +6576,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -7426,16 +6593,16 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>DHS 611</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Technology, Regulation and Law</t>
+          <t>Research and Publication Ethics</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -7444,11 +6611,11 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -7457,7 +6624,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -7469,16 +6636,16 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DHS 611</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Research and Publication Ethics</t>
+          <t>Analog Circuits</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -7487,7 +6654,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -7495,12 +6662,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -7512,12 +6679,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Analog Circuits</t>
+          <t>Analog Circuits Lab</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -7530,7 +6697,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -7538,12 +6705,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -7555,12 +6722,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Analog Circuits Lab</t>
+          <t>Principles of Communication Systems</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -7568,12 +6735,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -7581,12 +6748,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -7598,12 +6765,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ECE 303</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Principles of Communication Systems</t>
+          <t>Principles of Communication Systems Lab</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -7624,12 +6791,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -7641,12 +6808,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Principles of Communication Systems Lab</t>
+          <t>Signal Processing</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -7654,16 +6821,16 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -7672,7 +6839,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -7684,20 +6851,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Signal Processing</t>
+          <t>Operating Systems</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>61</v>
+        <v>193</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -7706,16 +6873,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -7727,16 +6894,16 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>VLS 603</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Operating Systems</t>
+          <t>Electronic Systems Packaging</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -7745,7 +6912,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -7753,42 +6920,42 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>VLS 603</t>
+          <t>VLS 804</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Electronic Systems Packaging</t>
+          <t>Analog Power ICs</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -7813,25 +6980,25 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>VLS 804</t>
+          <t>CSE 102-A</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Analog Power ICs</t>
+          <t>Data Structures and Algorithms</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -7856,7 +7023,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CSE 102-A</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -7865,7 +7032,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -7874,20 +7041,20 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -7899,16 +7066,16 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>CSE 102 P-A</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Data Structures and Algorithms</t>
+          <t>Data Structures and Algorithms lab</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -7917,20 +7084,20 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -7942,7 +7109,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CSE 102 P-A</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -7951,7 +7118,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -7960,7 +7127,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -7968,12 +7135,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -7985,16 +7152,16 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>CSE 104-A</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Data Structures and Algorithms lab</t>
+          <t>Linear Algebra</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -8003,20 +7170,20 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -8028,7 +7195,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CSE 104-A</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -8037,7 +7204,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -8046,20 +7213,20 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -8071,16 +7238,16 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Linear Algebra</t>
+          <t>Database Systems</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -8089,7 +7256,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -8097,12 +7264,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -8114,7 +7281,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>DAS 101-A</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -8123,7 +7290,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -8132,7 +7299,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -8140,12 +7307,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -8157,16 +7324,16 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>DAS 101-A</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Database Systems</t>
+          <t>Database Lab</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -8175,20 +7342,20 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -8200,7 +7367,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>DAS 101P-A</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -8209,7 +7376,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -8218,7 +7385,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -8243,16 +7410,16 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>DAS 101P-A</t>
+          <t>EGC 121-A</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Database Lab</t>
+          <t>Computer Architecture</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -8261,20 +7428,20 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -8286,16 +7453,16 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Economics-II</t>
+          <t>Computer Architecture</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -8312,12 +7479,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -8329,16 +7496,16 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>EGC 123-A</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Economics-II</t>
+          <t>Computer Networks</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -8347,15 +7514,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -8372,16 +7539,16 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Technical Communication</t>
+          <t>Computer Networks</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -8390,15 +7557,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -8407,264 +7574,6 @@
         </is>
       </c>
       <c r="I54" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>DHS 201-B</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Technical Communication</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>123</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>180</v>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>14:45</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>17:45</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>DHS 201-A</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Technical Communication</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>158</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>180</v>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>EGC 121-A</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Computer Architecture</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>127</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Sat</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>180</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>09:45</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>12:45</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>EGC 121-B</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Computer Architecture</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>95</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Sat</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>180</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>EGC 123-A</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Computer Networks</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>127</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>120</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>EGC 123-B</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Computer Networks</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>95</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>120</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>10:45</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>12:45</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
         <is>
           <t>True</t>
         </is>
@@ -8681,7 +7590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8744,7 +7653,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R401(Amanthran)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -8756,10 +7665,10 @@
         <v>59</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="H2" t="n">
         <v>59</v>
@@ -8778,7 +7687,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A307</t>
+          <t>Ramanujan Basement 02 (B- Block)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -8790,10 +7699,10 @@
         <v>59</v>
       </c>
       <c r="F3" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="H3" t="n">
         <v>59</v>
@@ -8812,7 +7721,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A308</t>
+          <t>R105</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -8824,10 +7733,10 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="H4" t="n">
         <v>20</v>
@@ -8846,7 +7755,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>A308</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -8858,10 +7767,10 @@
         <v>21</v>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G5" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H5" t="n">
         <v>21</v>
@@ -8948,7 +7857,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>A307</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -8960,10 +7869,10 @@
         <v>93</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G8" t="n">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="H8" t="n">
         <v>93</v>
@@ -8982,7 +7891,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>R203</t>
+          <t>R401(Amanthran)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -8994,10 +7903,10 @@
         <v>35</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="H9" t="n">
         <v>35</v>
@@ -9050,7 +7959,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 05 (E- Block)</t>
+          <t>R401(Amanthran)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -9062,10 +7971,10 @@
         <v>26</v>
       </c>
       <c r="F11" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="H11" t="n">
         <v>26</v>
@@ -9084,7 +7993,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>R110</t>
+          <t>R308</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -9096,10 +8005,10 @@
         <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -9118,7 +8027,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 02 (B- Block)</t>
+          <t>R105</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -9130,10 +8039,10 @@
         <v>39</v>
       </c>
       <c r="F13" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H13" t="n">
         <v>39</v>
@@ -9186,7 +8095,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>R401(Amanthran)</t>
+          <t>A304/A305</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -9198,10 +8107,10 @@
         <v>75</v>
       </c>
       <c r="F15" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G15" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="H15" t="n">
         <v>75</v>
@@ -9220,7 +8129,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R305</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -9232,10 +8141,10 @@
         <v>12</v>
       </c>
       <c r="F16" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G16" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H16" t="n">
         <v>12</v>
@@ -9254,7 +8163,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A106</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -9266,10 +8175,10 @@
         <v>134</v>
       </c>
       <c r="F17" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H17" t="n">
         <v>134</v>
@@ -9288,7 +8197,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R109</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -9300,10 +8209,10 @@
         <v>14</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G18" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H18" t="n">
         <v>14</v>
@@ -9322,7 +8231,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>R203</t>
+          <t>A106</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -9334,10 +8243,10 @@
         <v>115</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G19" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="H19" t="n">
         <v>115</v>
@@ -9390,7 +8299,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>Ramanujan Basement 04 (D- Block)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -9402,10 +8311,10 @@
         <v>25</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G21" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H21" t="n">
         <v>25</v>
@@ -9424,7 +8333,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -9436,10 +8345,10 @@
         <v>146</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="H22" t="n">
         <v>146</v>
@@ -9458,7 +8367,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -9470,10 +8379,10 @@
         <v>155</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="H23" t="n">
         <v>155</v>
@@ -9492,7 +8401,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 01 (A- Block)</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -9504,10 +8413,10 @@
         <v>14</v>
       </c>
       <c r="F24" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H24" t="n">
         <v>14</v>
@@ -9526,7 +8435,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A310</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -9538,7 +8447,7 @@
         <v>53</v>
       </c>
       <c r="F25" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G25" t="n">
         <v>60</v>
@@ -9560,7 +8469,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A303</t>
+          <t>Ramanujan Basement 05 (E- Block)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -9572,10 +8481,10 @@
         <v>72</v>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H26" t="n">
         <v>72</v>
@@ -9594,22 +8503,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 03 (C- Block)</t>
+          <t>R107/R108 (LAB)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NotLab</t>
+          <t>CSE Lab</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G27" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="H27" t="n">
         <v>7</v>
@@ -9618,17 +8527,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DHS 110</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Social Pathways to IT</t>
+          <t>Innovation and Design Thinking</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -9637,32 +8546,32 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>193</v>
+        <v>36</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="H28" t="n">
-        <v>193</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Innovation and Design Thinking</t>
+          <t>Software Architecture for Digital Products</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 02 (B- Block)</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -9671,32 +8580,32 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F29" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H29" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DHS 306</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Software Architecture for Digital Products</t>
+          <t>User Experience</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>R105</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -9705,32 +8614,32 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="H30" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>DHS 314</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>User Experience</t>
+          <t>An Introduction to Accessibility in the Global South</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 05 (E- Block)</t>
+          <t>Ramanujan Basement 01 (A- Block)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -9739,32 +8648,32 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F31" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G31" t="n">
         <v>80</v>
       </c>
       <c r="H31" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>DHS 315</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>An Introduction to Accessibility in the Global South</t>
+          <t>Technology, Regulation and Law</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A106</t>
+          <t>Ramanujan Basement 02 (B- Block)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -9773,32 +8682,32 @@
         </is>
       </c>
       <c r="E32" t="n">
+        <v>78</v>
+      </c>
+      <c r="F32" t="n">
         <v>25</v>
       </c>
-      <c r="F32" t="n">
-        <v>13</v>
-      </c>
       <c r="G32" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="H32" t="n">
-        <v>25</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>DHS 611</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Technology, Regulation and Law</t>
+          <t>Research and Publication Ethics</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 01 (A- Block)</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -9807,32 +8716,32 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F33" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H33" t="n">
-        <v>78</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DHS 611</t>
+          <t>ECE 212</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Research and Publication Ethics</t>
+          <t>Analog Circuits</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>Ramanujan Basement 01 (A- Block)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -9841,47 +8750,47 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="G34" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H34" t="n">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>ECE 212P</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Analog Circuits</t>
+          <t>Analog Circuits Lab</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 01 (A- Block)</t>
+          <t>A317 HidesLab</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NotLab</t>
+          <t>ECE Lab</t>
         </is>
       </c>
       <c r="E35" t="n">
         <v>61</v>
       </c>
       <c r="F35" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G35" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H35" t="n">
         <v>61</v>
@@ -9890,32 +8799,32 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>ECE 303</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Analog Circuits Lab</t>
+          <t>Principles of Communication Systems</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A317 HidesLab</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ECE Lab</t>
+          <t>NotLab</t>
         </is>
       </c>
       <c r="E36" t="n">
         <v>61</v>
       </c>
       <c r="F36" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>65</v>
+        <v>230</v>
       </c>
       <c r="H36" t="n">
         <v>61</v>
@@ -9924,32 +8833,32 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ECE 303</t>
+          <t>ECE 303P</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Principles of Communication Systems</t>
+          <t>Principles of Communication Systems Lab</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 03 (C- Block)</t>
+          <t>A317 HidesLab</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NotLab</t>
+          <t>ECE Lab</t>
         </is>
       </c>
       <c r="E37" t="n">
         <v>61</v>
       </c>
       <c r="F37" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G37" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H37" t="n">
         <v>61</v>
@@ -9958,32 +8867,32 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>ECE 304</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Principles of Communication Systems Lab</t>
+          <t>Signal Processing</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A317 HidesLab</t>
+          <t>A303</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ECE Lab</t>
+          <t>NotLab</t>
         </is>
       </c>
       <c r="E38" t="n">
         <v>61</v>
       </c>
       <c r="F38" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G38" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="H38" t="n">
         <v>61</v>
@@ -9992,17 +8901,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>EGC 301</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Signal Processing</t>
+          <t>Operating Systems</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>A304/A305</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -10011,66 +8920,66 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>61</v>
+        <v>193</v>
       </c>
       <c r="F39" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="H39" t="n">
-        <v>61</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>VLS 603</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Operating Systems</t>
+          <t>Electronic Systems Packaging</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>R203</t>
+          <t>R106 (LAB)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NotLab</t>
+          <t>CSE Lab</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G40" t="n">
-        <v>230</v>
+        <v>70</v>
       </c>
       <c r="H40" t="n">
-        <v>193</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>VLS 603</t>
+          <t>VLS 804</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Electronic Systems Packaging</t>
+          <t>Analog Power ICs</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -10079,32 +8988,32 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G41" t="n">
         <v>60</v>
       </c>
       <c r="H41" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>VLS 804</t>
+          <t>CSE 102-A</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Analog Power ICs</t>
+          <t>Data Structures and Algorithms</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>A303</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -10113,22 +9022,22 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="F42" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="H42" t="n">
-        <v>31</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CSE 102-A</t>
+          <t>CSE 102-B</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -10147,7 +9056,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
@@ -10156,41 +9065,41 @@
         <v>210</v>
       </c>
       <c r="H43" t="n">
-        <v>159</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>CSE 102 P-A</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Data Structures and Algorithms</t>
+          <t>Data Structures and Algorithms lab</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>R401(Amanthran)</t>
+          <t>R106 (LAB)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NotLab</t>
+          <t>CSE Lab</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="F44" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G44" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="H44" t="n">
-        <v>123</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45">
@@ -10206,25 +9115,25 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>R203</t>
+          <t>R107/R108 (LAB)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NotLab</t>
+          <t>CSE Lab</t>
         </is>
       </c>
       <c r="E45" t="n">
         <v>158</v>
       </c>
       <c r="F45" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G45" t="n">
-        <v>230</v>
+        <v>115</v>
       </c>
       <c r="H45" t="n">
-        <v>158</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46">
@@ -10240,65 +9149,65 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>A106</t>
+          <t>R106 (LAB)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NotLab</t>
+          <t>CSE Lab</t>
         </is>
       </c>
       <c r="E46" t="n">
         <v>123</v>
       </c>
       <c r="F46" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G46" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="H46" t="n">
-        <v>123</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CSE 104-A</t>
+          <t>CSE 102 P-B</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Linear Algebra</t>
+          <t>Data Structures and Algorithms lab</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R107/R108 (LAB)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NotLab</t>
+          <t>CSE Lab</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G47" t="n">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="H47" t="n">
-        <v>158</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>CSE 104-A</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -10308,7 +9217,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>A106</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -10317,32 +9226,32 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G48" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="H48" t="n">
-        <v>123</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>CSE 104-B</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Database Systems</t>
+          <t>Linear Algebra</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>A204</t>
+          <t>A106</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -10351,22 +9260,22 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="F49" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G49" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="H49" t="n">
-        <v>95</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>DAS 101-A</t>
+          <t>DAS 101-B</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -10376,7 +9285,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>A204</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -10385,56 +9294,56 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G50" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="H50" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>DAS 101-A</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Database Lab</t>
+          <t>Database Systems</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>R107/R108 (LAB)</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CSE Lab</t>
+          <t>NotLab</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="H51" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>DAS 101P-A</t>
+          <t>DAS 101P-B</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -10453,7 +9362,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F52" t="n">
         <v>5</v>
@@ -10462,23 +9371,23 @@
         <v>115</v>
       </c>
       <c r="H52" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>DAS 101P-A</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Economics-II</t>
+          <t>Database Lab</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>R106 (LAB)</t>
+          <t>R107/R108 (LAB)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -10487,134 +9396,134 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="F53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G53" t="n">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="H53" t="n">
-        <v>70</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>DHS 101B-A</t>
+          <t>EGC 121-A</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Economics-II</t>
+          <t>Computer Architecture</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>R107/R108 (LAB)</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>CSE Lab</t>
+          <t>NotLab</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="F54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="H54" t="n">
-        <v>88</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>EGC 121-B</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Economics-II</t>
+          <t>Computer Architecture</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>R106 (LAB)</t>
+          <t>A307</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>CSE Lab</t>
+          <t>NotLab</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="F55" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G55" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="H55" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DHS 101B-B</t>
+          <t>EGC 123-A</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Economics-II</t>
+          <t>Computer Networks</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>R107/R108 (LAB)</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>CSE Lab</t>
+          <t>NotLab</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="H56" t="n">
-        <v>81</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>DHS 201-A</t>
+          <t>EGC 123-B</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Technical Communication</t>
+          <t>Computer Networks</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>R401(Amanthran)</t>
+          <t>A204</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -10623,219 +9532,15 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="F57" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G57" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="H57" t="n">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>DHS 201-B</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Technical Communication</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>A106</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>123</v>
-      </c>
-      <c r="F58" t="n">
-        <v>13</v>
-      </c>
-      <c r="G58" t="n">
-        <v>200</v>
-      </c>
-      <c r="H58" t="n">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>DHS 201-A</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Technical Communication</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>A106</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>158</v>
-      </c>
-      <c r="F59" t="n">
-        <v>13</v>
-      </c>
-      <c r="G59" t="n">
-        <v>200</v>
-      </c>
-      <c r="H59" t="n">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>EGC 121-A</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Computer Architecture</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>R203</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>127</v>
-      </c>
-      <c r="F60" t="n">
-        <v>10</v>
-      </c>
-      <c r="G60" t="n">
-        <v>230</v>
-      </c>
-      <c r="H60" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>EGC 121-B</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Computer Architecture</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>R401(Amanthran)</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>95</v>
-      </c>
-      <c r="F61" t="n">
-        <v>22</v>
-      </c>
-      <c r="G61" t="n">
-        <v>160</v>
-      </c>
-      <c r="H61" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>EGC 123-A</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Computer Networks</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>R203</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>127</v>
-      </c>
-      <c r="F62" t="n">
-        <v>10</v>
-      </c>
-      <c r="G62" t="n">
-        <v>230</v>
-      </c>
-      <c r="H62" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>EGC 123-B</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Computer Networks</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>A106</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>NotLab</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>95</v>
-      </c>
-      <c r="F63" t="n">
-        <v>13</v>
-      </c>
-      <c r="G63" t="n">
-        <v>200</v>
-      </c>
-      <c r="H63" t="n">
         <v>95</v>
       </c>
     </row>

--- a/timetable_report.xlsx
+++ b/timetable_report.xlsx
@@ -555,7 +555,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5321,7 +5321,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -5329,12 +5329,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -5372,12 +5372,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -5407,7 +5407,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -5415,12 +5415,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -5450,7 +5450,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -5501,12 +5501,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -5536,7 +5536,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -5544,12 +5544,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -5579,7 +5579,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -5587,12 +5587,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -5630,12 +5630,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -5665,7 +5665,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -5673,12 +5673,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -5759,12 +5759,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -5802,12 +5802,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5845,12 +5845,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5880,7 +5880,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -5888,12 +5888,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -5931,12 +5931,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -5974,12 +5974,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -6017,12 +6017,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -6060,12 +6060,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -6103,12 +6103,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -6146,12 +6146,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -6181,7 +6181,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -6189,12 +6189,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -6224,7 +6224,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -6232,12 +6232,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -6275,12 +6275,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -6310,7 +6310,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -6318,12 +6318,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -6353,7 +6353,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -6396,7 +6396,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -6404,12 +6404,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -6439,7 +6439,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -6447,12 +6447,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -6482,7 +6482,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -6490,12 +6490,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -6525,7 +6525,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -6533,12 +6533,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -6619,12 +6619,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -6654,7 +6654,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -6662,12 +6662,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -6748,12 +6748,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -6834,12 +6834,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -6877,12 +6877,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -6920,12 +6920,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -6955,7 +6955,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -6963,12 +6963,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -7006,12 +7006,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -7041,7 +7041,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -7049,12 +7049,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -7084,7 +7084,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -7092,12 +7092,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -7135,12 +7135,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -7178,12 +7178,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -7221,12 +7221,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -7256,7 +7256,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -7264,12 +7264,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -7299,7 +7299,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -7342,7 +7342,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -7350,12 +7350,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -7385,7 +7385,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -7393,12 +7393,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -7479,12 +7479,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>R401(Amanthran)</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -7665,10 +7665,10 @@
         <v>59</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
         <v>59</v>
@@ -7687,7 +7687,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 02 (B- Block)</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7699,10 +7699,10 @@
         <v>59</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="H3" t="n">
         <v>59</v>
@@ -7721,7 +7721,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>R105</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -7733,10 +7733,10 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="H4" t="n">
         <v>20</v>
@@ -7755,7 +7755,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A308</t>
+          <t>A204</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -7767,10 +7767,10 @@
         <v>21</v>
       </c>
       <c r="F5" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H5" t="n">
         <v>21</v>
@@ -7807,7 +7807,7 @@
         <v>70</v>
       </c>
       <c r="H6" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -7841,7 +7841,7 @@
         <v>115</v>
       </c>
       <c r="H7" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8">
@@ -7891,7 +7891,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>R401(Amanthran)</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -7903,10 +7903,10 @@
         <v>35</v>
       </c>
       <c r="F9" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="H9" t="n">
         <v>35</v>
@@ -7925,7 +7925,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>A303</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -7937,10 +7937,10 @@
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G10" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="H10" t="n">
         <v>7</v>
@@ -7959,7 +7959,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>R401(Amanthran)</t>
+          <t>A204</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -7971,10 +7971,10 @@
         <v>26</v>
       </c>
       <c r="F11" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="H11" t="n">
         <v>26</v>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>R308</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -8005,10 +8005,10 @@
         <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -8027,7 +8027,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>R105</t>
+          <t>Ramanujan Basement 05 (E- Block)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -8039,10 +8039,10 @@
         <v>39</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="G13" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H13" t="n">
         <v>39</v>
@@ -8061,7 +8061,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>R203</t>
+          <t>Ramanujan Basement 03 (C- Block)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -8073,10 +8073,10 @@
         <v>79</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="H14" t="n">
         <v>79</v>
@@ -8129,7 +8129,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>R305</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -8141,10 +8141,10 @@
         <v>12</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H16" t="n">
         <v>12</v>
@@ -8163,7 +8163,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>R203</t>
+          <t>A106</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -8175,10 +8175,10 @@
         <v>134</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G17" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="H17" t="n">
         <v>134</v>
@@ -8197,7 +8197,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>R109</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -8209,10 +8209,10 @@
         <v>14</v>
       </c>
       <c r="F18" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H18" t="n">
         <v>14</v>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A106</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -8243,10 +8243,10 @@
         <v>115</v>
       </c>
       <c r="F19" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H19" t="n">
         <v>115</v>
@@ -8265,7 +8265,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>R105</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -8277,10 +8277,10 @@
         <v>41</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G20" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H20" t="n">
         <v>41</v>
@@ -8299,7 +8299,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 04 (D- Block)</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -8311,10 +8311,10 @@
         <v>25</v>
       </c>
       <c r="F21" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G21" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H21" t="n">
         <v>25</v>
@@ -8367,7 +8367,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>R203</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -8379,10 +8379,10 @@
         <v>155</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="H23" t="n">
         <v>155</v>
@@ -8401,7 +8401,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R105</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -8413,10 +8413,10 @@
         <v>14</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H24" t="n">
         <v>14</v>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>Ramanujan Basement 05 (E- Block)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -8447,10 +8447,10 @@
         <v>53</v>
       </c>
       <c r="F25" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G25" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H25" t="n">
         <v>53</v>
@@ -8469,7 +8469,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 05 (E- Block)</t>
+          <t>A303</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -8481,10 +8481,10 @@
         <v>72</v>
       </c>
       <c r="F26" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G26" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H26" t="n">
         <v>72</v>
@@ -8537,7 +8537,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>A106</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -8549,10 +8549,10 @@
         <v>36</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G28" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="H28" t="n">
         <v>36</v>
@@ -8571,7 +8571,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>Ramanujan Basement 02 (B- Block)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -8583,10 +8583,10 @@
         <v>34</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="G29" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H29" t="n">
         <v>34</v>
@@ -8605,7 +8605,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R110</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -8617,10 +8617,10 @@
         <v>40</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G30" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="H30" t="n">
         <v>40</v>
@@ -8639,7 +8639,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 01 (A- Block)</t>
+          <t>Ramanujan Basement 05 (E- Block)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -8651,7 +8651,7 @@
         <v>25</v>
       </c>
       <c r="F31" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G31" t="n">
         <v>80</v>
@@ -8673,7 +8673,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 02 (B- Block)</t>
+          <t>Ramanujan Basement 04 (D- Block)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -8685,7 +8685,7 @@
         <v>78</v>
       </c>
       <c r="F32" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G32" t="n">
         <v>80</v>
@@ -8707,7 +8707,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -8719,7 +8719,7 @@
         <v>12</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
         <v>60</v>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 01 (A- Block)</t>
+          <t>Ramanujan Basement 04 (D- Block)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -8753,7 +8753,7 @@
         <v>61</v>
       </c>
       <c r="F34" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G34" t="n">
         <v>80</v>
@@ -8809,7 +8809,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>R203</t>
+          <t>A204</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -8821,10 +8821,10 @@
         <v>61</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G36" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="H36" t="n">
         <v>61</v>
@@ -8877,7 +8877,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A303</t>
+          <t>Ramanujan Basement 04 (D- Block)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -8889,10 +8889,10 @@
         <v>61</v>
       </c>
       <c r="F38" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G38" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H38" t="n">
         <v>61</v>
@@ -8911,7 +8911,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>R203</t>
+          <t>A106</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -8923,10 +8923,10 @@
         <v>193</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G39" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="H39" t="n">
         <v>193</v>
@@ -8979,7 +8979,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>A106</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -8991,10 +8991,10 @@
         <v>31</v>
       </c>
       <c r="F41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="H41" t="n">
         <v>31</v>
@@ -9047,7 +9047,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>A106</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -9059,10 +9059,10 @@
         <v>123</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G43" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="H43" t="n">
         <v>123</v>
@@ -9167,7 +9167,7 @@
         <v>70</v>
       </c>
       <c r="H46" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47">
@@ -9201,7 +9201,7 @@
         <v>115</v>
       </c>
       <c r="H47" t="n">
-        <v>53</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48">
@@ -9217,7 +9217,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>A106</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -9229,10 +9229,10 @@
         <v>158</v>
       </c>
       <c r="F48" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H48" t="n">
         <v>158</v>
@@ -9251,7 +9251,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>A106</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -9263,10 +9263,10 @@
         <v>123</v>
       </c>
       <c r="F49" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H49" t="n">
         <v>123</v>
@@ -9421,7 +9421,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -9433,10 +9433,10 @@
         <v>127</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G54" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="H54" t="n">
         <v>127</v>
@@ -9455,7 +9455,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>A307</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -9467,10 +9467,10 @@
         <v>95</v>
       </c>
       <c r="F55" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="H55" t="n">
         <v>95</v>
@@ -9523,7 +9523,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>A204</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -9535,10 +9535,10 @@
         <v>95</v>
       </c>
       <c r="F57" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="H57" t="n">
         <v>95</v>

--- a/timetable_report.xlsx
+++ b/timetable_report.xlsx
@@ -878,7 +878,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4652,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5321,7 +5321,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -5329,12 +5329,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -5372,12 +5372,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -5407,7 +5407,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -5415,12 +5415,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -5450,7 +5450,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -5458,12 +5458,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -5501,12 +5501,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -5536,7 +5536,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -5544,12 +5544,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -5579,7 +5579,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -5587,12 +5587,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -5630,12 +5630,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -5665,7 +5665,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -5673,12 +5673,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -5716,12 +5716,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -5751,7 +5751,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -5759,12 +5759,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -5794,7 +5794,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -5802,12 +5802,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5837,7 +5837,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -5845,12 +5845,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5880,7 +5880,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -5888,12 +5888,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -5931,12 +5931,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -6017,12 +6017,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -6060,12 +6060,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -6138,7 +6138,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -6146,12 +6146,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -6181,7 +6181,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -6189,12 +6189,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -6232,12 +6232,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -6310,7 +6310,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -6318,12 +6318,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -6361,12 +6361,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -6396,7 +6396,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -6404,12 +6404,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -6439,7 +6439,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -6447,12 +6447,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -6482,7 +6482,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -6490,12 +6490,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -6525,7 +6525,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -6533,12 +6533,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -6576,12 +6576,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -6619,12 +6619,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -6654,7 +6654,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -6662,12 +6662,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -6705,12 +6705,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -6791,12 +6791,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -6834,12 +6834,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -6869,7 +6869,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -6912,7 +6912,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -6920,12 +6920,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -6955,7 +6955,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -6963,12 +6963,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -7006,12 +7006,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -7041,7 +7041,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -7049,12 +7049,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -7084,7 +7084,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -7092,12 +7092,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -7170,7 +7170,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -7178,12 +7178,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -7221,12 +7221,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -7264,12 +7264,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -7299,7 +7299,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -7307,12 +7307,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -7342,7 +7342,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -7385,7 +7385,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -7393,12 +7393,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -7436,12 +7436,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -7479,12 +7479,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -7522,12 +7522,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -7557,7 +7557,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -7565,12 +7565,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -7590,7 +7590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R105</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -7665,29 +7665,29 @@
         <v>59</v>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H2" t="n">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AIM 102</t>
+          <t>AIM 101</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Statistical Machine Learning</t>
+          <t>Statistics for DS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R109</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7699,29 +7699,29 @@
         <v>59</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G3" t="n">
-        <v>210</v>
+        <v>35</v>
       </c>
       <c r="H3" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AIM 704</t>
+          <t>AIM 102</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Multi-agent Systems</t>
+          <t>Statistical Machine Learning</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>R203</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -7730,32 +7730,32 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="H4" t="n">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AIM 821</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Spatial Computing</t>
+          <t>Multi-agent Systems</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A204</t>
+          <t>R110</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -7764,100 +7764,100 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="H5" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>AIM 704</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Few-shot Learning</t>
+          <t>Multi-agent Systems</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>R106 (LAB)</t>
+          <t>R109</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CSE Lab</t>
+          <t>NotLab</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G6" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="H6" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AIM 831</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Few-shot Learning</t>
+          <t>Spatial Computing</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>R107/R108 (LAB)</t>
+          <t>R305</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CSE Lab</t>
+          <t>NotLab</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G7" t="n">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="H7" t="n">
-        <v>115</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AIM 832</t>
+          <t>AIM 821</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Reinforcement Learning</t>
+          <t>Spatial Computing</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A307</t>
+          <t>Ramanujan Basement 04 (D- Block)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -7866,100 +7866,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G8" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="H8" t="n">
-        <v>93</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AIM 843</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Spatio-temporal Data Analytics I</t>
+          <t>Few-shot Learning</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>R203</t>
+          <t>R106 (LAB)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NotLab</t>
+          <t>CSE Lab</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>230</v>
+        <v>70</v>
       </c>
       <c r="H9" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AIM 845</t>
+          <t>AIM 831</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Topics in Quantum Computing</t>
+          <t>Few-shot Learning</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A303</t>
+          <t>R107/R108 (LAB)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NotLab</t>
+          <t>CSE Lab</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AIM 846</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Multiobjective Machine Learning</t>
+          <t>Reinforcement Learning</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A204</t>
+          <t>R105</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -7968,32 +7968,32 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="H11" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AMS 401</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Science&amp; Maths Pool-4 (Electromagnetics &amp; Radiation Systems)</t>
+          <t>Reinforcement Learning</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R306</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -8002,32 +8002,32 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="F12" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G12" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AMS 402</t>
+          <t>AIM 832</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Science&amp; Maths Pool-3 (Basic Computational Topology)</t>
+          <t>Reinforcement Learning</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 05 (E- Block)</t>
+          <t>R401(Amanthran)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -8036,32 +8036,32 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="F13" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G13" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="H13" t="n">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AMS 403</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Science&amp; Maths Pool-2 (Elements of Statistical Physics)</t>
+          <t>Spatio-temporal Data Analytics I</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 03 (C- Block)</t>
+          <t>A303</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -8070,32 +8070,32 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="F14" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H14" t="n">
-        <v>79</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AMS 404</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Science&amp; Maths Pool-1 (A computational introduction to Number Theory)</t>
+          <t>Spatio-temporal Data Analytics I</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A304/A305</t>
+          <t>A310</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -8104,32 +8104,32 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="F15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H15" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>COM 605</t>
+          <t>AIM 843</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5G-NR Radio Access Network Design with Hands-on</t>
+          <t>Spatio-temporal Data Analytics I</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R401(Amanthran)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -8138,32 +8138,32 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G16" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="H16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CSE 212</t>
+          <t>AIM 845</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Design and Analysis of Algorithms</t>
+          <t>Topics in Quantum Computing</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A106</t>
+          <t>A204</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -8172,32 +8172,32 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G17" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="H17" t="n">
-        <v>134</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CSE 606</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Computer Graphics</t>
+          <t>Multiobjective Machine Learning</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -8206,32 +8206,32 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>60</v>
       </c>
       <c r="H18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CSE 704</t>
+          <t>AIM 846</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Topics in Computability and Learning</t>
+          <t>Multiobjective Machine Learning</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>R203</t>
+          <t>A107</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -8240,32 +8240,32 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="F19" t="n">
+        <v>21</v>
+      </c>
+      <c r="G19" t="n">
+        <v>15</v>
+      </c>
+      <c r="H19" t="n">
         <v>10</v>
-      </c>
-      <c r="G19" t="n">
-        <v>230</v>
-      </c>
-      <c r="H19" t="n">
-        <v>115</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CSE 718</t>
+          <t>AMS 401</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Foundations of Distributed Consensus and Blockchains</t>
+          <t>Science&amp; Maths Pool-4 (Electromagnetics &amp; Radiation Systems)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R401(Amanthran)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -8274,32 +8274,32 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="H20" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CSE 754</t>
+          <t>AMS 402</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Programming Languages</t>
+          <t>Science&amp; Maths Pool-3 (Basic Computational Topology)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R110</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -8308,32 +8308,32 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F21" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G21" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H21" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CSE 816</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Software Production Engineering</t>
+          <t>Science&amp; Maths Pool-2 (Elements of Statistical Physics)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>R203</t>
+          <t>Ramanujan Basement 05 (E- Block)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -8342,32 +8342,32 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G22" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="H22" t="n">
-        <v>146</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CSE 824</t>
+          <t>AMS 403</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cyber Security Fundamentals with Tools &amp; Techniques for Defence</t>
+          <t>Science&amp; Maths Pool-2 (Elements of Statistical Physics)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>A314</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -8376,32 +8376,32 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="G23" t="n">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="H23" t="n">
-        <v>155</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CSE 836</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Simulation and Modeling of Data using High Performance Computing</t>
+          <t>Science&amp; Maths Pool-1 (A computational introduction to Number Theory)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>R105</t>
+          <t>A226</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -8410,32 +8410,32 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G24" t="n">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="H24" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DAS 605</t>
+          <t>AMS 404</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Data Modelling</t>
+          <t>Science&amp; Maths Pool-1 (A computational introduction to Number Theory)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 05 (E- Block)</t>
+          <t>Ramanujan Basement 04 (D- Block)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -8444,32 +8444,32 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="F25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G25" t="n">
         <v>80</v>
       </c>
       <c r="H25" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DAS 839</t>
+          <t>COM 605</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NoSQL Systems</t>
+          <t>5G-NR Radio Access Network Design with Hands-on</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A303</t>
+          <t>A310</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -8478,66 +8478,66 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G26" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H26" t="n">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DHS 108</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>The City</t>
+          <t>Design and Analysis of Algorithms</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>R107/R108 (LAB)</t>
+          <t>R305</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CSE Lab</t>
+          <t>NotLab</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G27" t="n">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="H27" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DHS 305</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Innovation and Design Thinking</t>
+          <t>Design and Analysis of Algorithms</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A106</t>
+          <t>R109</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -8546,32 +8546,32 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="F28" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G28" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="H28" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DHS 306</t>
+          <t>CSE 212</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Software Architecture for Digital Products</t>
+          <t>Design and Analysis of Algorithms</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 02 (B- Block)</t>
+          <t>Ramanujan Basement 04 (D- Block)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -8580,32 +8580,32 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="F29" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G29" t="n">
         <v>80</v>
       </c>
       <c r="H29" t="n">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DHS 308</t>
+          <t>CSE 606</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>User Experience</t>
+          <t>Computer Graphics</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>R110</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -8614,32 +8614,32 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F30" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G30" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H30" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DHS 314</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>An Introduction to Accessibility in the Global South</t>
+          <t>Topics in Computability and Learning</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 05 (E- Block)</t>
+          <t>R306</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -8648,32 +8648,32 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="F31" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G31" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H31" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DHS 315</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Technology, Regulation and Law</t>
+          <t>Topics in Computability and Learning</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 04 (D- Block)</t>
+          <t>A304/A305</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -8682,32 +8682,32 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="F32" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G32" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H32" t="n">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DHS 611</t>
+          <t>CSE 704</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Research and Publication Ethics</t>
+          <t>Topics in Computability and Learning</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>Ramanujan Basement 05 (E- Block)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -8716,32 +8716,32 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="G33" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H33" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ECE 212</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Analog Circuits</t>
+          <t>Foundations of Distributed Consensus and Blockchains</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 04 (D- Block)</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -8750,66 +8750,66 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F34" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="H34" t="n">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ECE 212P</t>
+          <t>CSE 718</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Analog Circuits Lab</t>
+          <t>Foundations of Distributed Consensus and Blockchains</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>A317 HidesLab</t>
+          <t>A106</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ECE Lab</t>
+          <t>NotLab</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F35" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G35" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="H35" t="n">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ECE 303</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Principles of Communication Systems</t>
+          <t>Programming Languages</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A204</t>
+          <t>R109</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -8818,66 +8818,66 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F36" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G36" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="H36" t="n">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ECE 303P</t>
+          <t>CSE 754</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Principles of Communication Systems Lab</t>
+          <t>Programming Languages</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A317 HidesLab</t>
+          <t>Ramanujan Basement 03 (C- Block)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ECE Lab</t>
+          <t>NotLab</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F37" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G37" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="H37" t="n">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ECE 304</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Signal Processing</t>
+          <t>Software Production Engineering</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ramanujan Basement 04 (D- Block)</t>
+          <t>R401(Amanthran)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -8886,32 +8886,32 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="F38" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G38" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="H38" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>EGC 301</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Operating Systems</t>
+          <t>Software Production Engineering</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>A106</t>
+          <t>R109</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -8920,66 +8920,66 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="F39" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G39" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="H39" t="n">
-        <v>193</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>VLS 603</t>
+          <t>CSE 816</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Electronic Systems Packaging</t>
+          <t>Software Production Engineering</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>R106 (LAB)</t>
+          <t>Ramanujan Basement 01 (A- Block)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CSE Lab</t>
+          <t>NotLab</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="F40" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G40" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H40" t="n">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>VLS 804</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Analog Power ICs</t>
+          <t>Cyber Security Fundamentals with Tools &amp; Techniques for Defence</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>A106</t>
+          <t>R110</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -8988,32 +8988,32 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="F41" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G41" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="H41" t="n">
-        <v>31</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CSE 102-A</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Data Structures and Algorithms</t>
+          <t>Cyber Security Fundamentals with Tools &amp; Techniques for Defence</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>A204</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -9022,32 +9022,32 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G42" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="H42" t="n">
-        <v>159</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CSE 102-B</t>
+          <t>CSE 824</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Data Structures and Algorithms</t>
+          <t>Cyber Security Fundamentals with Tools &amp; Techniques for Defence</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>A106</t>
+          <t>A304/A305</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -9056,168 +9056,168 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="F43" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G43" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="H43" t="n">
-        <v>123</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CSE 102 P-A</t>
+          <t>CSE 836</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Data Structures and Algorithms lab</t>
+          <t>Simulation and Modeling of Data using High Performance Computing</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>R106 (LAB)</t>
+          <t>Ramanujan Basement 05 (E- Block)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>CSE Lab</t>
+          <t>NotLab</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="F44" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G44" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H44" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CSE 102 P-A</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Data Structures and Algorithms lab</t>
+          <t>Data Modelling</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>R107/R108 (LAB)</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CSE Lab</t>
+          <t>NotLab</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>158</v>
+        <v>53</v>
       </c>
       <c r="F45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="H45" t="n">
-        <v>115</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Data Structures and Algorithms lab</t>
+          <t>Data Modelling</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>R106 (LAB)</t>
+          <t>R203</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CSE Lab</t>
+          <t>NotLab</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="F46" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="H46" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CSE 102 P-B</t>
+          <t>DAS 605</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Data Structures and Algorithms lab</t>
+          <t>Data Modelling</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>R107/R108 (LAB)</t>
+          <t>Ramanujan Basement 05 (E- Block)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CSE Lab</t>
+          <t>NotLab</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G47" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="H47" t="n">
-        <v>82</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CSE 104-A</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Linear Algebra</t>
+          <t>NoSQL Systems</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -9226,32 +9226,32 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G48" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="H48" t="n">
-        <v>158</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CSE 104-B</t>
+          <t>DAS 839</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Linear Algebra</t>
+          <t>NoSQL Systems</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>A304/A305</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -9260,66 +9260,66 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G49" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="H49" t="n">
-        <v>123</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>DAS 101-B</t>
+          <t>DHS 108</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Database Systems</t>
+          <t>The City</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>A204</t>
+          <t>R106 (LAB)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NotLab</t>
+          <t>CSE Lab</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="F50" t="n">
+        <v>4</v>
+      </c>
+      <c r="G50" t="n">
+        <v>70</v>
+      </c>
+      <c r="H50" t="n">
         <v>7</v>
-      </c>
-      <c r="G50" t="n">
-        <v>120</v>
-      </c>
-      <c r="H50" t="n">
-        <v>95</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>DAS 101-A</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Database Systems</t>
+          <t>Innovation and Design Thinking</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -9328,100 +9328,100 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="H51" t="n">
-        <v>96</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>DAS 101P-B</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Database Lab</t>
+          <t>Innovation and Design Thinking</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>R107/R108 (LAB)</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>CSE Lab</t>
+          <t>NotLab</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="F52" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G52" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="H52" t="n">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DAS 101P-A</t>
+          <t>DHS 305</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Database Lab</t>
+          <t>Innovation and Design Thinking</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>R107/R108 (LAB)</t>
+          <t>A308</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>CSE Lab</t>
+          <t>NotLab</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G53" t="n">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="H53" t="n">
-        <v>96</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>EGC 121-A</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Computer Architecture</t>
+          <t>Software Architecture for Digital Products</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>R203</t>
+          <t>A204</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -9430,32 +9430,32 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G54" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="H54" t="n">
-        <v>127</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>EGC 121-B</t>
+          <t>DHS 306</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Computer Architecture</t>
+          <t>Software Architecture for Digital Products</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>R203</t>
+          <t>R305</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -9464,32 +9464,32 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="F55" t="n">
+        <v>8</v>
+      </c>
+      <c r="G55" t="n">
+        <v>20</v>
+      </c>
+      <c r="H55" t="n">
         <v>10</v>
-      </c>
-      <c r="G55" t="n">
-        <v>230</v>
-      </c>
-      <c r="H55" t="n">
-        <v>95</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>EGC 123-A</t>
+          <t>DHS 308</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Computer Networks</t>
+          <t>User Experience</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R105</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -9498,50 +9498,1716 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G56" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="H56" t="n">
-        <v>127</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>DHS 308</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>User Experience</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A204</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>40</v>
+      </c>
+      <c r="F57" t="n">
+        <v>7</v>
+      </c>
+      <c r="G57" t="n">
+        <v>120</v>
+      </c>
+      <c r="H57" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>DHS 308</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>User Experience</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A303</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>40</v>
+      </c>
+      <c r="F58" t="n">
+        <v>11</v>
+      </c>
+      <c r="G58" t="n">
+        <v>90</v>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>DHS 314</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>An Introduction to Accessibility in the Global South</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A308</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>25</v>
+      </c>
+      <c r="F59" t="n">
+        <v>15</v>
+      </c>
+      <c r="G59" t="n">
+        <v>40</v>
+      </c>
+      <c r="H59" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>DHS 314</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>An Introduction to Accessibility in the Global South</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Ramanujan Basement 05 (E- Block)</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>25</v>
+      </c>
+      <c r="F60" t="n">
+        <v>28</v>
+      </c>
+      <c r="G60" t="n">
+        <v>80</v>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>DHS 315</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Technology, Regulation and Law</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>R105</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>78</v>
+      </c>
+      <c r="F61" t="n">
+        <v>3</v>
+      </c>
+      <c r="G61" t="n">
+        <v>70</v>
+      </c>
+      <c r="H61" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>DHS 315</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Technology, Regulation and Law</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>78</v>
+      </c>
+      <c r="F62" t="n">
+        <v>12</v>
+      </c>
+      <c r="G62" t="n">
+        <v>60</v>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>DHS 315</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Technology, Regulation and Law</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Ramanujan Basement 02 (B- Block)</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>78</v>
+      </c>
+      <c r="F63" t="n">
+        <v>25</v>
+      </c>
+      <c r="G63" t="n">
+        <v>80</v>
+      </c>
+      <c r="H63" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>DHS 611</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Research and Publication Ethics</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Ramanujan Basement 02 (B- Block)</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>12</v>
+      </c>
+      <c r="F64" t="n">
+        <v>25</v>
+      </c>
+      <c r="G64" t="n">
+        <v>80</v>
+      </c>
+      <c r="H64" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ECE 212</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Analog Circuits</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>A304/A305</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>61</v>
+      </c>
+      <c r="F65" t="n">
+        <v>17</v>
+      </c>
+      <c r="G65" t="n">
+        <v>90</v>
+      </c>
+      <c r="H65" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ECE 212</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Analog Circuits</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>R308</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>61</v>
+      </c>
+      <c r="F66" t="n">
+        <v>20</v>
+      </c>
+      <c r="G66" t="n">
+        <v>15</v>
+      </c>
+      <c r="H66" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ECE 212P</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Analog Circuits Lab</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>A317 HidesLab</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>ECE Lab</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>61</v>
+      </c>
+      <c r="F67" t="n">
+        <v>18</v>
+      </c>
+      <c r="G67" t="n">
+        <v>65</v>
+      </c>
+      <c r="H67" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ECE 303</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Principles of Communication Systems</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>R110</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>61</v>
+      </c>
+      <c r="F68" t="n">
+        <v>6</v>
+      </c>
+      <c r="G68" t="n">
+        <v>70</v>
+      </c>
+      <c r="H68" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ECE 303</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Principles of Communication Systems</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>A308</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>61</v>
+      </c>
+      <c r="F69" t="n">
+        <v>15</v>
+      </c>
+      <c r="G69" t="n">
+        <v>40</v>
+      </c>
+      <c r="H69" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ECE 303P</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Principles of Communication Systems Lab</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>A317 HidesLab</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>ECE Lab</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>61</v>
+      </c>
+      <c r="F70" t="n">
+        <v>18</v>
+      </c>
+      <c r="G70" t="n">
+        <v>65</v>
+      </c>
+      <c r="H70" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ECE 304</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Signal Processing</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Ramanujan Basement 04 (D- Block)</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>61</v>
+      </c>
+      <c r="F71" t="n">
+        <v>27</v>
+      </c>
+      <c r="G71" t="n">
+        <v>80</v>
+      </c>
+      <c r="H71" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>EGC 301</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Operating Systems</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>193</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" t="n">
+        <v>210</v>
+      </c>
+      <c r="H72" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>VLS 603</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Electronic Systems Packaging</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>R106 (LAB)</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>CSE Lab</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>33</v>
+      </c>
+      <c r="F73" t="n">
+        <v>4</v>
+      </c>
+      <c r="G73" t="n">
+        <v>70</v>
+      </c>
+      <c r="H73" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>VLS 804</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Analog Power ICs</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>A106</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>31</v>
+      </c>
+      <c r="F74" t="n">
+        <v>13</v>
+      </c>
+      <c r="G74" t="n">
+        <v>200</v>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>VLS 804</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Analog Power ICs</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>A107</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>31</v>
+      </c>
+      <c r="F75" t="n">
+        <v>21</v>
+      </c>
+      <c r="G75" t="n">
+        <v>15</v>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>VLS 804</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Analog Power ICs</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Ramanujan Basement 02 (B- Block)</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>31</v>
+      </c>
+      <c r="F76" t="n">
+        <v>25</v>
+      </c>
+      <c r="G76" t="n">
+        <v>80</v>
+      </c>
+      <c r="H76" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>CSE 102-A</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Data Structures and Algorithms</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>R110</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>159</v>
+      </c>
+      <c r="F77" t="n">
+        <v>6</v>
+      </c>
+      <c r="G77" t="n">
+        <v>70</v>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>CSE 102-A</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Data Structures and Algorithms</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>A204</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>159</v>
+      </c>
+      <c r="F78" t="n">
+        <v>7</v>
+      </c>
+      <c r="G78" t="n">
+        <v>120</v>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>CSE 102-A</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Data Structures and Algorithms</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>R401(Amanthran)</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>159</v>
+      </c>
+      <c r="F79" t="n">
+        <v>22</v>
+      </c>
+      <c r="G79" t="n">
+        <v>160</v>
+      </c>
+      <c r="H79" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>CSE 102-B</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Data Structures and Algorithms</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>A106</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>123</v>
+      </c>
+      <c r="F80" t="n">
+        <v>13</v>
+      </c>
+      <c r="G80" t="n">
+        <v>200</v>
+      </c>
+      <c r="H80" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>CSE 102 P-A</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Data Structures and Algorithms lab</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>R106 (LAB)</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>CSE Lab</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>158</v>
+      </c>
+      <c r="F81" t="n">
+        <v>4</v>
+      </c>
+      <c r="G81" t="n">
+        <v>70</v>
+      </c>
+      <c r="H81" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>CSE 102 P-A</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Data Structures and Algorithms lab</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>R107/R108 (LAB)</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>CSE Lab</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>158</v>
+      </c>
+      <c r="F82" t="n">
+        <v>5</v>
+      </c>
+      <c r="G82" t="n">
+        <v>115</v>
+      </c>
+      <c r="H82" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>CSE 102 P-B</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Data Structures and Algorithms lab</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>R106 (LAB)</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>CSE Lab</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>123</v>
+      </c>
+      <c r="F83" t="n">
+        <v>4</v>
+      </c>
+      <c r="G83" t="n">
+        <v>70</v>
+      </c>
+      <c r="H83" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>CSE 102 P-B</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Data Structures and Algorithms lab</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>R107/R108 (LAB)</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>CSE Lab</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>123</v>
+      </c>
+      <c r="F84" t="n">
+        <v>5</v>
+      </c>
+      <c r="G84" t="n">
+        <v>115</v>
+      </c>
+      <c r="H84" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>CSE 104-A</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Linear Algebra</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>R110</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>158</v>
+      </c>
+      <c r="F85" t="n">
+        <v>6</v>
+      </c>
+      <c r="G85" t="n">
+        <v>70</v>
+      </c>
+      <c r="H85" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>CSE 104-A</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Linear Algebra</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>A310</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>158</v>
+      </c>
+      <c r="F86" t="n">
+        <v>16</v>
+      </c>
+      <c r="G86" t="n">
+        <v>60</v>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>CSE 104-A</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Linear Algebra</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Ramanujan Basement 04 (D- Block)</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>158</v>
+      </c>
+      <c r="F87" t="n">
+        <v>27</v>
+      </c>
+      <c r="G87" t="n">
+        <v>80</v>
+      </c>
+      <c r="H87" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>CSE 104-B</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Linear Algebra</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>R401(Amanthran)</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>123</v>
+      </c>
+      <c r="F88" t="n">
+        <v>22</v>
+      </c>
+      <c r="G88" t="n">
+        <v>160</v>
+      </c>
+      <c r="H88" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>CSE 104-B</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Linear Algebra</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Ramanujan Basement 01 (A- Block)</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>123</v>
+      </c>
+      <c r="F89" t="n">
+        <v>24</v>
+      </c>
+      <c r="G89" t="n">
+        <v>80</v>
+      </c>
+      <c r="H89" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>CSE 104-B</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Linear Algebra</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Ramanujan Basement 03 (C- Block)</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>123</v>
+      </c>
+      <c r="F90" t="n">
+        <v>26</v>
+      </c>
+      <c r="G90" t="n">
+        <v>80</v>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>DAS 101-B</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Database Systems</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>R203</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>95</v>
+      </c>
+      <c r="F91" t="n">
+        <v>10</v>
+      </c>
+      <c r="G91" t="n">
+        <v>230</v>
+      </c>
+      <c r="H91" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>DAS 101-B</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Database Systems</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>R308</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>95</v>
+      </c>
+      <c r="F92" t="n">
+        <v>20</v>
+      </c>
+      <c r="G92" t="n">
+        <v>15</v>
+      </c>
+      <c r="H92" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>DAS 101-A</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Database Systems</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>A307</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>96</v>
+      </c>
+      <c r="F93" t="n">
+        <v>14</v>
+      </c>
+      <c r="G93" t="n">
+        <v>110</v>
+      </c>
+      <c r="H93" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>DAS 101P-B</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Database Lab</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>R107/R108 (LAB)</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>CSE Lab</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>95</v>
+      </c>
+      <c r="F94" t="n">
+        <v>5</v>
+      </c>
+      <c r="G94" t="n">
+        <v>115</v>
+      </c>
+      <c r="H94" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>DAS 101P-A</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Database Lab</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>R107/R108 (LAB)</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>CSE Lab</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>96</v>
+      </c>
+      <c r="F95" t="n">
+        <v>5</v>
+      </c>
+      <c r="G95" t="n">
+        <v>115</v>
+      </c>
+      <c r="H95" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>EGC 121-A</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Computer Architecture</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>127</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" t="n">
+        <v>210</v>
+      </c>
+      <c r="H96" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>EGC 121-A</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Computer Architecture</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>A106</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>127</v>
+      </c>
+      <c r="F97" t="n">
+        <v>13</v>
+      </c>
+      <c r="G97" t="n">
+        <v>200</v>
+      </c>
+      <c r="H97" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>EGC 121-A</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Computer Architecture</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>R109</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>127</v>
+      </c>
+      <c r="F98" t="n">
+        <v>23</v>
+      </c>
+      <c r="G98" t="n">
+        <v>35</v>
+      </c>
+      <c r="H98" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>EGC 121-B</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Computer Architecture</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>A303</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>95</v>
+      </c>
+      <c r="F99" t="n">
+        <v>11</v>
+      </c>
+      <c r="G99" t="n">
+        <v>90</v>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>EGC 121-B</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Computer Architecture</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>A307</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>95</v>
+      </c>
+      <c r="F100" t="n">
+        <v>14</v>
+      </c>
+      <c r="G100" t="n">
+        <v>110</v>
+      </c>
+      <c r="H100" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>EGC 121-B</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Computer Architecture</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>A304/A305</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>95</v>
+      </c>
+      <c r="F101" t="n">
+        <v>17</v>
+      </c>
+      <c r="G101" t="n">
+        <v>90</v>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>EGC 123-A</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>A204</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>127</v>
+      </c>
+      <c r="F102" t="n">
+        <v>7</v>
+      </c>
+      <c r="G102" t="n">
+        <v>120</v>
+      </c>
+      <c r="H102" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>EGC 123-A</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>R306</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>127</v>
+      </c>
+      <c r="F103" t="n">
+        <v>9</v>
+      </c>
+      <c r="G103" t="n">
+        <v>20</v>
+      </c>
+      <c r="H103" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>EGC 123-A</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>A307</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>127</v>
+      </c>
+      <c r="F104" t="n">
+        <v>14</v>
+      </c>
+      <c r="G104" t="n">
+        <v>110</v>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
           <t>EGC 123-B</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>Computer Networks</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>R306</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>NotLab</t>
         </is>
       </c>
-      <c r="E57" t="n">
+      <c r="E105" t="n">
         <v>95</v>
       </c>
-      <c r="F57" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" t="n">
-        <v>210</v>
-      </c>
-      <c r="H57" t="n">
+      <c r="F105" t="n">
+        <v>9</v>
+      </c>
+      <c r="G105" t="n">
+        <v>20</v>
+      </c>
+      <c r="H105" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>EGC 123-B</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Ramanujan Basement 04 (D- Block)</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>NotLab</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
         <v>95</v>
+      </c>
+      <c r="F106" t="n">
+        <v>27</v>
+      </c>
+      <c r="G106" t="n">
+        <v>80</v>
+      </c>
+      <c r="H106" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
